--- a/data_backend/resources/domain_data/data_reference_segment.xlsx
+++ b/data_backend/resources/domain_data/data_reference_segment.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">reference_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">reference_seg_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtype_id</t>
   </si>
   <si>
     <t xml:space="preserve">segment_type</t>
@@ -104,60 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">MDSNTVSSFQVDCFLWHVRKRFADQDMGDAPFLDRLRRDQKSLRGRSSTLGIDIEAATRSGKQIIERILGEESDEALKMTIASVPASRYITDMTTEEMSRDWLMLMPKQKFAGPLCIKMDQAIIDKDITLKANFSVIFNRLETLVLLRAFTNEGAIVGEISQLPSLPGHTSEDVKIAIGVLIGGLEWNDNTVRISENLQRFAWGSSNENGRPPFTPEQKQKLARTIESEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGGAGAGAATAAAAGAACTGAGAGATCTAATGTCGCAGTCCCGCACTCGCGAGATACTCACTAAGACCACTGTGGACCATATGGCCATAATCAAAAAGTACACATCAGGAAGGCAAGAGAAGAACCCCGCACTCAGAATGAAGTGGATGATGGCAATGAGATACCCAATTACAGCAGACAAGAGAATAATGGACATGATTCCAGAGAGGAATGAACAAGGACAAACCCTCTGGAGCAAAACAAACGATGCTGGATCAGACCGAGTGATGGTATCACCTCTGGCCGTAACATGGTGGAATAGGAATGGCCCAACAACAAGTACAGTTCATTACCCTAAGGTATATAAAACTTATTTCGAAAAGGTCGAAAGGTTGAAACATGGTACCTTCGGCCCTGTCCACTTCAGAAATCAAGTTAAAATAAGGAGGAGAGTTGATACAAACCCTGGCCATGCAGATCTCAGTGCCAAGGAGGCACAGGATGTGATTATGGAAGTTGTTTTCCCAAATGAAGTGGGGGCAAGAATACTGACATCAGAGTCACAGCTGGCAATAACAAAAGAGAAGAAAGAAGAGCTCCAGGATTGTAAAATTGCTCCCTTGATGGTGGCGTACATGCTAGAAAGAGAATTGGTCCGTAAAACAAGGTTTCTCCCAGTAGCCGGCGGAACAGGCAGTGTTTATATTGAAGTGTTGCACTTAACCCAAGGGACGTGCTGGGAGCAGATGTACACTCCAGGAGGAGAAGTGAGAAATGATGATGTTGACCAAAGTTTGATTATCGCTGCTAGAAACATAGTAAGAAGAGCAGCAGTGTCAGCAGACCCATTAGCATCTCTCTTGGAAATGTGCCACAGCACACAGATTGGAGGAGTAAGGATGGTGGACATCCTTAGACAGAATCCAACTGAGGAACAAGCCGTAGACATATGCAAGGCAGCAATAGGGTTGAGGATTAGCTCATCTTTCAGTTTTGGTGGGTTCACTTTCAAAAGGACAAGCGGATCATCAGTCAAGAAAGAAGAAGAAGTGCTAACGGGCAACCTCCAAACACTGAAAATAAGAGTACATGAAGGGTATGAAGAATTCACAATGGTTGGGAGAAGAGCAACAGCTATTCTCAGAAAGGCAACCAGGAGATTGATCCAGTTGATAGTAAGCGGGAGAGACGAGCAGTCAATTGCTGAGGCAATAATTGTGGCCATGGTATTCTCACAGGAGGATTGCATGATCAAGGCAGTTAGGGGCGATCTGAACTTTGTCAATAGGGCAAACCAGCGACTGAACCCCATGCACCAACTCTTGAGGCATTTCCAAAAAGATGCAAAAGTGCTTTTCCAGAACTGGGGAATTGAATCCATCGACAATGTGATGGGAATGATCGGAATACTGCCCGACATGACCCCAAGCACGGAGATGTCGCTGAGAGGGATAAGAGTCAGCAAAATGGGAGTAGATGAATACTCCAGCACGGAGAGAGTGGTAGTGAGTATTGACCGATTTTTAAGGGTTAGAGATCAAAGAGGGAACGTACTATTGTCTCCCGAAGAAGTCAGTGAAACGCAAGGAACTGAGAAGTTGACAATAACTTATTCGTCATCAATGATGTGGGAGATCAATGGCCCTGAGTCAGTGCTAGTCAACACTTATCAATGGATAATCAGGAACTGGGAAATTGTGAAAATTCAATGGTCACAAGATCCCACAATGTTATACAACAAAATGGAATTTGAACCATTTCAGTCTCTTGTCCCTAAGGCAACCAGAAGCCGGTACAGTGGATTCGTAAGGACACTGTTCCAGCAAATGCGGGATGTGCTTGGGACATTTGACACTGTCCAAATAATAAAACTTCTCCCCTTTGCTGCTGCCCCACCAGAACAGAGTAGGATGCAATTTTCCTCATTGACTGTGAATGTGAGAGGATCAGGGTTGAGGATACTGGTAAGAGGCAATTCTCCAGTATTCAATTACAACAAGGCAACCAAACGACTTACAGTTCTTGGAAAGGATGCAGGTGCATTGACTGAAGATCCAGATGAAGGCACATCTGGGGTGGAGTCTGCTGTCCTGAGAGGATTTCTCATTTTGGGCAAAGAAGACAAGAGATATGGCCCAGCATTAAGCATCAATGAACTGAGCAATCTTGCAAAAGGAGAGAAGGCTAATGTGCTAATTGGGCAAGGGGACGTAGTGTTGGTAATGAAACGAAAACGGGACTCTAGCATACTTACTGACAGCCAGACAGCGACCAAAAGAATTCGGATGGCCATCAATTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERIKELRDLMSQSRTREILTKTTVDHMAIIKKYTSGRQEKNPALRMKWMMAMRYPITADKRIMDMIPERNEQGQTLWSKTNDAGSDRVMVSPLAVTWWNRNGPTTSTVHYPKVYKTYFEKVERLKHGTFGPVHFRNQVKIRRRVDTNPGHADLSAKEAQDVIMEVVFPNEVGARILTSESQLAITKEKKEELQDCKIAPLMVAYMLERELVRKTRFLPVAGGTGSVYIEVLHLTQGTCWEQMYTPGGEVRNDDVDQSLIIAARNIVRRAAVSADPLASLLEMCHSTQIGGVRMVDILRQNPTEEQAVDICKAAIGLRISSSFSFGGFTFKRTSGSSVKKEEEVLTGNLQTLKIRVHEGYEEFTMVGRRATAILRKATRRLIQLIVSGRDEQSIAEAIIVAMVFSQEDCMIKAVRGDLNFVNRANQRLNPMHQLLRHFQKDAKVLFQNWGIESIDNVMGMIGILPDMTPSTEMSLRGIRVSKMGVDEYSSTERVVVSIDRFLRVRDQRGNVLLSPEEVSETQGTEKLTITYSSSMMWEINGPESVLVNTYQWIIRNWEIVKIQWSQDPTMLYNKMEFEPFQSLVPKATRSRYSGFVRTLFQQMRDVLGTFDTVQIIKLLPFAAAPPEQSRMQFSSLTVNVRGSGLRILVRGNSPVFNYNKATKRLTVLGKDAGALTEDPDEGTSGVESAVLRGFLILGKEDKRYGPALSINELSNLAKGEKANVLIGQGDVVLVMKRKRDSSILTDSQTATKRIRMAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGGATGTCAATCCGACTCTACTTTTCCTAAAAATTCCAGCGCAAAATGCCATAAGCACCACATTCCCTTATACTGGAGATCCTCCATACAGCCATGGAACAGGAACAGGATACACCATGGACACAGTAAACAGAACACACCAATACTCAGAAAAGGGAAAGTGGACGACAAACACAGAGACTGGTGCACCCCAGCTCAACCCGATTGATGGACCACTACCTGAGGATAATGAACCAAGTGGGTATGCACAAACAGACTGTGTTCTAGAGGCTATGGCTTTCCTTGAAGAATCCCACCCAGGAATATTTGAGAATTCATGCCTTGAAACAATGGAAGTTGTTCAACAAACAAGGGTAGATAAACTAACTCAAGGTCGCCAGACTTATGATTGGACATTAAACAGAAATCAACCGGCAGCAACTGCATTGGCCAACACCATAGAAGTCTTTAGATCGAATGGCCTAACAGCTAATGAGTCAGGAAGGCTAATAGATTTCTTAAAGGATGTAATGGAATCAATGAACAAAGAGGAAATAGAGATAACAACCCACTTTCAAAGAAAAAGGAGAGTAAGAGACAACATGACCAAGAAGATGGTCACGCAAAGAACAATAGGGAAGAAAAAACAAAGACTGAATAAGAGAGGCTATCTAATAAGAGCACTGACATTAAATACGATGACCAAAGATGCAGAGAGAGGCAAGTTAAAAAGAAGGGCTATCGCAACACCTGGGATGCAGATTAGAGGTTTCGTATACTTTGTTGAAACTTTAGCTAGGAGCATTTGCGAAAAGCTTGAACAGTCTGGGCTCCCAGTAGGGGGCAATGAAAAGAAGGCCAAACTGGCAAATGTTGTGAGAAAGATGATGACTAATTCACAAGACACAGAGATTTCTTTCACAATCACTGGGGACAACACTAAGTGGAATGAAAATCAAAATCCTCGAATGTTCCTGGCGATGATTACATATATCACCAGAAATCAACCCGAGTGGTTCAGAAACATCCTGAGCATGGCACCCATAATGTTCTCAAACAAAATGGCAAGACTAGGGAAAGGGTACATGTTCGAGAGTAAAAGAATGAAGATTCGAACACAAATACCAGCAGAAATGCTAGCAAGCATTGACCTGAAGTACTTCAATGAATCAACAAAGAAGAAAATTGAGAAAATAAGGCCTCTTCTAATAGATGGCACAGCATCACTGAGTCCTGGGATGATGATGGGCATGTTCAACATGCTAAGTACGGTCTTGGGAGTCTCGATACTGAATCTTGGACAAAAGAAATACACCAAGACAATATACTGGTGGGATGGGCTCCAATCATCCGACGATTTTGCTCTCATAGTGAATGCACCAAACCATGAGGGAATACAAGCAGGAGTGGACAGATTCTACAGGACCTGCAAGTTAGTGGGAATCAACATGAGCAAAAAGAAGTCCTATATAAATAAGACAGGGACATTTGAATTCACAAGCTTTTTTTATCGCTATGGATTTGTGGCTAATTTTAGCATGGAGCTACCCAGCTTTGGAGTGTCTGGAGTAAATGAATCAGCTGACATGAGTATTGGAGTAACAGTGATAAAGAACAACATGATAAACAATGACCTTGGACCTGCAACGGCCCAGATGGCTCTTCAATTGTTCATCAAAGACTACAGATACACATATAGGTGCCATAGGGGAGACACACAAATTCAGACGAGAAGATCATTTGAGTTAAAGAAGCTGTGGGATCAAACCCAATCAAAGGTAGGGCTATTAGTATCAGATGGAGGACCAAACTTATACAATATACGGAATCTTCACATTCCTGAAGTCTGCTTAAAATGGGAGCTAATGGATGATGATTATCGGGGAAGACTTTGTAATCCCCTGAATCCCTTTGTCAGTCATAAAGAGATTGATTCTGTAAACAATGCTGTGGTAATGCCAGCCCATGGTCCAGCCAAAAGCATGGAATATGATGCCGTTGCAACTACACATTCCTGGATTCCCAAGAGGAATCGTTCTATTCTCAACACAAGCCAAAGGGGAATTCTTGAGGATGAACAGATGTACCAGAAGTGCTGCAATCTATTCGAGAAATTTTTCCCTAGCAGTTCATATAGGAGACCGGTTGGAATTTCTAGCATGGTGGAGGCCATGGTGTCTAGGGCCCGGATTGATGCCAGGGTCGACTTCGAGTCTGGACGGATCAAGAAAGAAGAGTTCTCTGAGATCATGAAGATCTGTTCCACCATTGAAGAACTCAGACGGCAAAAATAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGGAAGACTTTGTGCGACAATGCTTCAATCCAATGATCGTCGAGCTTGCGGRAAAGGCAATGAAAGAATATGGGGAAGATCCGAAAATCGAAACTAACAAGTTTGCTGCAATATGCACACATTTGGAAGTTTGTTTCATGTATTCGGATTTCCATTTCATCGACGAACGGGGTGAATCAATAATTGTAGAATCTGGTGACCCGAATGCACTATTGAAGCACCGATTTGAGATAATTGAAGGAAGAGACCGAATCATGGCCTGGACAGTGGTGAACAGTATATGTAACACAACAGGGGTAGAGAAGCCTAAATTTCTTCCTGATTTGTATGATTACAAAGAGAACCGGTTCATTGAAATTGGAGTAACACGGAGGGAAGTCCACATATATTACCTAGAGAAAGCCAACAAAATAAAATCTGAGAAGACACACATTCACATCTTTTCATTCACTGGAGAGGAGATGGCCACCAAAGCGGACTACACCCTTGACGAAGAGAGCAGGGCAAGAATCAAAACTAGGCTTTTCACTATAAGACAAGAAATGGCCAGTAGGAGTCTATGGGATTCCTTTCGTCAGTCCGAAAGAGGCGAAGAGACAATTGAAGAAAAATTTGAGATTACAGGAACTATGCGCAAGCTTGCCGACCAAAGTCTCCCACCGAACTTCCCCAGCCTTGAAAACTTTAGAGCCTATGTAGATGGATTCGAGCCGAACGGCTGCATTGAGGGCAAGCTTTCCCAAATGTCAAAAGAAGTGAACGCCAAAATTGAACCATTCTTGAGGACGACACCACGCCCCCTCAGATTGCCTGATGGGCCTCTTTGCCATCAGCGGTCAAAGTTCCTGCTGATGGATGCTCTGAAATTAAGTATTGAAGACCCGAGTCACGAGGGGGAGGGAATACCACTATATGATGCAATCAAATGCATGAAGACATTCTTTGGCTGGAAAGAGCCTAACATAGTCAAACCACATGAGAAAGGCATAAATCCCAATTACCTCATGGCTTGGAAGCAGGTGCTAGCAGAGCTACAGGACATTGAAAATGAAGAGAAGATCCCAAGGACAAAGAACATGAAGAGAACAAGCCAATTGAAGTGGGCACTCGGTGAAAATATGGCACCAGAAAAAGTAGACTTTGATGACTGCAAAGATGTTGGAGACCTTAAACAGTATGACAGTGATGAGCCAGAGCCCAGATCTCTAGCAAGCTGGGTCCAAAATGAATTCAATAAGGCATGTGAATTGACTGATTCAAGCTGGATAGAACTTGATGAAATAGGAGAAGATGTTGCCCCGATTGAACATATCGCAAGCATGAGGAGGAACTATTTTACAGCAGAAGTGTCCCACTGCAGGGCTACTGAATACATAATGAAGGGAGTGTACATAAATACGGCCTTGCTCAATGCATCCTGTGCAGCCATGGATGACTTTCAGCTGATCCCAATGATAAGCAAATGTAGGACCAAAGAAGGAAGACGGAAAACAAACCTGTATGGGTTCATTATAAAAGGAAGGTCTCATTTGAGAAATGATACTGATGTGGTGAACTTTGTAAGTATGGAGTTCTCACTCACTGACCCGAGACTGGAGCCACACAAATGGGAAAAATACTGTGTTCTTGAAATAGGAGACATGCTCTTGAGGACTGCGATAGGCCAAGTGTCGAGGCCCATGTTCCTATATGTGAGAACCAATGGAACCTCCAAGATCAAGATGAAATGGGGCATGGAAATGAGGCGCTGCCTTCTTCAGTCTCTTCAGCAGATTGAGAGCATGATTGAGGCCGAGTCTTCTGTCAAAGAGAAAGACATGACCAAGGAATTCTTTGAAAACAAATCGGAAACATGGCCAATCGGAGAGTCACCCAGGGGAGTGGAGGAAGGCTCTATTGGGAAAGTGTGCAGGACCTTACTGGCAAAATCTGTATTCAACAGTCTATATGCGTCTCCACAACTTGAGGGGTTTTCGGCTGAATCTAGAAAATTGCTTCTCATTGTTCAGGCACTTAGGGACAACCTGGAACCTGGAACCTTCGATCTTGGGGGGCTATATGAAGCAATCGAGGAGTGCCTGATTAATGATCCCTGGGTTTTGCTTAATGCATCTTGGTTCAACTCCTTCCTCACACATGCACTGAAGTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDFVRQCFNPMIVELAXKAMKEYGEDPKIETNKFAAICTHLEVCFMYSDFHFIDERGESIIVESGDPNALLKHRFEIIEGRDRIMAWTVVNSICNTTGVEKPKFLPDLYDYKENRFIEIGVTRREVHIYYLEKANKIKSEKTHIHIFSFTGEEMATKADYTLDEESRARIKTRLFTIRQEMASRSLWDSFRQSERGEETIEEKFEITGTMRKLADQSLPPNFPSLENFRAYVDGFEPNGCIEGKLSQMSKEVNAKIEPFLRTTPRPLRLPDGPLCHQRSKFLLMDALKLSIEDPSHEGEGIPLYDAIKCMKTFFGWKEPNIVKPHEKGINPNYLMAWKQVLAELQDIENEEKIPRTKNMKRTSQLKWALGENMAPEKVDFDDCKDVGDLKQYDSDEPEPRSLASWVQNEFNKACELTDSSWIELDEIGEDVAPIEHIASMRRNYFTAEVSHCRATEYIMKGVYINTALLNASCAAMDDFQLIPMISKCRTKEGRRKTNLYGFIIKGRSHLRNDTDVVNFVSMEFSLTDPRLEPHKWEKYCVLEIGDMLLRTAIGQVSRPMFLYVRTNGTSKIKMKWGMEMRRCLLQSLQQIESMIEAESSVKEKDMTKEFFENKSETWPIGESPRGVEEGSIGKVCRTLLAKSVFNSLYASPQLEGFSAESRKLLLIVQALRDNLEPGTFDLGGLYEAIEECLINDPWVLLNASWFNSFLTHALK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGAAGGCAATACTAGTAGTTCTGCTATATACATTTGCAACCGCAAATGCAGACACATTATGTATAGGTTATCATGCGAACAATTCAACAGACACTGTAGACACAGTACTAGAAAAGAATGTAACAGTAACACACTCTGTTAACCTTCTAGAAGACAAGCATAACGGGAAACTATGCAAACTAAGAGGGGTAGCCCCATTGCATTTGGGTAAATGTAACATTGCTGGCTGGATCCTGGGAAATCCAGAGTGTGAATCACTCTCCACAGCAAGCTCATGGTCCTACATTGTGGAAACACCTAGTTCAGACAATGGAACGTGTTACCCAGGAGATTTCATCGATTATGAGGAGCTAAGAGAGCAATTGAGCTCAGTGTCATCATTTGAAAGGTTTGAGATATTCCCCAAGACAAGTTCATGGCCCAATCATGACTCGAACAAAGGTGTAACGGCAGCATGTCCTCATGCTGGAGCAAAAAGCTTCTACAAAAATTTAATATGGCTAGTTAAAAAAGGAAATTCATACCCAAAGCTCAGCAAATCCTACATTAATGATAAAGGGAAAGAAGTCCTCGTGCTATGGGGCATTCACCATCCATCTACTAGTGCTGACCAACAAAGTCTCTATCAGAATGCAGATGCATATGTTTTTGTGGGGTCATCAAGATACAGCAAGAAGTTCAAGCCGGAAATAGCAATAAGACCCAAAGTGAGGGRTCRAGAAGGGAGAATGAACTATTACTGGACACTAGTAGAGCCGGGAGACAAAATAACATTCGAAGCAACTGGAAATCTAGTGGTACCGAGATATGCATTCGCAATGGAAAGAAATGCTGGATCTGGTATTATCATTTCAGATACACCAGTCCACGATTGCAATACAACTTGTCAAACACCCAAGGGTGCTATAAACACCAGCCTCCCATTTCAGAATATACATCCGATCACAATTGGAAAATGTCCAAAATATGTAAAAAGCACAAAATTGAGACTGGCCACAGGATTGAGGAATATCCCGTCTATTCAATCTAGAGGCCTATTTGGGGCCATTGCCGGTTTCATTGAAGGGGGGTGGACAGGGATGGTAGATGGATGGTACGGTTATCACCATCAAAATGAGCAGGGGTCAGGATATGCAGCCGACCTGAAGAGCACACAGAATGCCATTGACGAGATTACTAACAAAGTAAATTCTGTTATTGAAAAGATGAATACACAGTTCACAGCAGTAGGTAAAGAGTTCAACCACCTGGAAAAAAGAATAGAGAATTTAAATAAAAAAGTTGATGATGGTTTCCTGGACATTTGGACTTACAATGCCGAACTGTTGGTTCTATTGGAAAATGAAAGAACTTTGGACTACCACGATTCAAATGTGAAGAACTTATATGAAAAGGTAAGAAGCCAGCTAAAAAACAATGCCAAGGAAATTGGAAACGGCTGCTTTGAATTTTACCACAAATGCGATAACACGTGCATGGAAAGTGTCAAAAATGGGACTTATGACTACCCAAAATACTCAGAGGAAGCAAAATTAAACAGAGAAGAAATAGATGGGGTAAAGCTGGAATCAACAAGGATTTACCAGATTTTGGCGATCTATTCAACTGTCGCCAGTTCATTGGTACTGGTAGTCTCCCTGGGGGCAATCAGTTTCTGGATGTGCTCTAATGGGTCTCTACAGTGTAGAATATGTATTTAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGGCGTCTCAAGGCACCAAACGATCATATGAACAAATGGAGACTGGTGGGGAGCGCCAGGATGCCACAGAAATCAGAGCATCTGTCGGAAGAATGATTGGTGGAATCGGGAGATTCTACATCCAAATGTGCACTGAACTCAAACTCAGTGATTATGATGGACGACTAATCCAGAATAGCATAACAATAGAGAGGATGGTGCTTTCTGCTTTTGATGAGAGAAGAAATAAATACCTAGAAGAGCATCCCAGTGCTGGGAAGGACCCTAAGAAAACAGGAGGACCCATATATAGAAGAGTAGACGGAAAGTGGATGAGAGAACTCATCCTTTATGACAAAGRAGAAATAAGGAGAGTTTGGCGCCTAGCAAACAATGGCGAAGATGCAACAGCAGGTCTTACTCATATCATGATTTGGCATTCCAACCTGAATGATGCCACATATCAGAGAACAAGAGCGCTTGTTCGCACCGGAATGGATCCCAGAATGTGCTCTCTAATGCAAGGTTCAACACTTCCCAGAAGGTCTGGTGCCGCAGGTGCTGCGGTGAAAGGAGTTGGAACAATAGCAATGGAGTTAATCAGAATGATCAAACGTGGAATCAATGACCGAAATTTCTGGAGGGGTGAAAATGGACGAAGGACAAGGGTTGCTTATGAAAGAATGTGCAATATCCTCAAAGGAAAATTTCAAACAGCTGCCCAGAGGGCAATGATGGATCAAGTAAGAGAAAGTCGAAACCCAGGAAACGCTGAGATTGAAGACCTCATTTTCCTGGCACGGTCAGCACTCATTCTGAGGGGATCAGTTGCACATAAATCCTGCCTGCCTGCTTGTGTGTATGGGCTTGCAGTAGCAAGTGGGCATGACTTTGAAAGGGAAGGGTACTCACTGGTCGGGATAGACCCATTCAAATTACTCCAAAACAGCCAAGTGGTCAGCCTGATGAGACCAAATGAAAACCCAGCTCACAAGAGTCAATTGGTGTGGATGGCATGCCACTCTGCTGCATTTGAAGATTTAAGAGTATCAAGTTTCATAAGAGGAAAGAAAGTGATTCCAAGAGGAAAGCTTTCCACAAGAGGGGTCCAGATTGCTTCAAATGAGAATGTGGAAACCATGGACTCCAATACCCTGGAACTGAGAAGCAGATACTGGGCCATAAGGACCAGGAGTGGAGGAAATACCAATCAACAAAAGGCATCCGCAGGCCAGATCAGTGTGCAGCCTACATTCTCAGTGCAGCGGAATCTCCCTTTTGAAAGAGCAACCGTTATGGCAGCATTCAGCGGGAACAATGAAGGACGGACATCCGACATGCGAACAGAAGTTATAAGAATGATGGAAAGTGCAAAGCCAGAAGATTTGTCCTTCCAGGGGCGGGGAGTCTTCGAGCTCTCGGACGAAAAGGCAACGAACCCGATCGTGCCTTCCTTTGACATGAGTAATGAAGGGTCTTATTTCTTCGGAGACAATGCAGAGGAGTATGACAGTTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGAATCCAAACCAAAAGATAATAACCATTGGTTCGGTCTGTATGACAATTGGAATGGCTAACTTAATATTACAAATTGGAAACATAATCTCAATATGGATTAGCCACTCAATTCAACTTGGGAATCAAAATCAGATTGAAACATGCAATCAAAGCGTCATTACTTATGAAAACAACACTTGGGTAAATCAGACATATGTTAACATCAGCAACACCAACTTTGCTGCTGGACAGTCAGTGGTTTCCGTGAAATTAGCGGGCAATTCCTCTCTCTGCCCTGTTAGTGGATGGGCTATATACAGTAAAGACAACAGTGTAAGAATCGGTTCCAAGGGGGATGTGTTTGTCATAAGGGAACCATTCATATCATGCTCCCCCTTGGAATGCAGAACCTTCTTCTTGACTCAAGGGGCCTTGCTAAATGACAAACATTCCAATGGAACCATTAAAGACAGGAGCCCATATCGAACCCTAATGAGCTGTCCTATTGGTGAAGTTCCCTCTCCATACAACTCAAGATTTGAGTCAGTCGCTTGGTCAGCAAGTGCTTGTCATGATGGCATCAATTGGCTAACAATTGGAATTTCTGGCCCAGACAATGGGGCAGTGGCTGTGTTAAAGTACAACGGCATAATAACAGACACTATCAAGAGTTGGAGAAACAATATATTGAGAACACAAGAGTCTGAATGTGCATGTGTAAATGGTTCTTGCTTTACTGTAATGACCGATGGACCAAGTAATGGACAGGCCTCATACAAGATCTTCAGAATAGAAAAGGGAAAGATAGTCAAATCAGTCGAAATGAATGCCCCTAATTATCACTATGAGGAATGCTCCTGTTATCCTGATTCTAGTGAAATCACATGTGTGTGCAGGGATAACTGGCATGGCTCGAATCGACCGTGGGTGTCTTTCAACCAGAATCTGGAATATCAGATAGGATACATATGCAGTGGGATTTTCGGAGACAATCCACGCCCTAATGATAAGACAGGCAGTTGTGGTCCAGTATCGTCTAATGGAGCAAATGGAGTAAAAGGGTTTTCATTCAAATACGGCAATGGTGTTTGGATAGGGAGAACTAAAAGCATTAGTTCAAGAAACGGTTTTGAGATGATTTGGGATCCGAACGGATGGACTGGGACAGACAATAACTTCTCAATAAAGCAAGATATCGTAGGAATAAATGAGTGGTCAGGATATAGCGGGAGTTTTGTTCAGCATCCAGAACTAACAGGGCTGGATTGTATAAGACCTTGCTTCTGGGTTGAACTAATCAGAGGGCGACCCAAAGAGAACACAATCTGGACTAGCGGGAGCAGCATATCCTTTTGTGGTGTAAACAGTGACACTGTGGGTTGGTCTTGGCCAGACGGTGCTGAGTTGCCATTTACCATTGACAAGTAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGAGTCTTCTAACCGAGGTCGAAACGTACGTTCTTTCTATCATCCCGTCAGGCCCCCTCAAAGCCGAGATCGCGCAGAGACTGGAAAGTGTCTTTGCAGGAAAGAACACAGATCTTGAGGCTCTCATGGAATGGCTAAAGACAAGACCAATCTTGTCACCTCTGACTAAGGGAATTTTAGGATTTGTGTTCACGCTCACCGTGCCCAGTGAGCGAGGACTGCAGCGTAGACGCTTTGTCCAAAATGCCCTAAATGGGAATGGGGACCCGAACAACATGGATAGAGCAGTTAAACTATACAAGAAGCTCAAAAGAGAAATAACGTTCCATGGGGCCAAGGAGGTGTCACTAAGCTATTCAACTGGTGCACTTGCCAGTTGCATGGGCCTCATATACAACAGGATGGGAACAGTGACCACAGAAGCTGCTTTTGGTCTAGTGTGTGCCACTTGTGAACAGATTGCTGATTCACAGCATCGGTCTCACAGACAGATGGCTACTACCACCAATCCACTAATCAGGCATGAAAACAGAATGGTGCTGGCTAGCACTACGGCAAAGGCTATGGAACAGATGGCTGGATCGAGTGAACAGGCAGCGGAGGCCATGGAGGTTGCTAATCAGACTAGGCAGATGGTACATGCAATGAGAACTATTGGGACTCATCCTAGCTCCAGTGCTGGTCTGAAAGATGACCTTCTTGAAAATTTGCAGGCCTACCAGAAGCGAATGGGAGTGCAGATGCAGCGATTCAAGTGATCCTCTCGTCATTGCAGCAAATATCATTGGGATCTTGCACCTGATATTGTGGATTACTGATCGTCTTTTTTTCAAATGTATTTATCGTCGCTTTAAATACGGTTTGAAAAGAGGGCCTTCTACGGAAGGAGTGCCTGAGTCCATGAGGGAAGAATATCAACAGGAACAGCAGAGTGCTGTGGATGTTGACGATGGTCATTTTGTCAACATAGAGCTAGAGTAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGGACTCCAACACCATGTCAAGCTTTCAGGTAGACTGTTTCCTTTGGCATATCCGCAAGCGATTTGCAGACAATGGATTGGGTGATGCCCCATTCCTTGATCGGCTCCGCCGAGATCAAAAGTCCTTAAAAGGAAGAGGCAACACCCTTGGCCTCGATATCGAAACAGCCACTCTTGTTGGGAAACAAATCGTGGAATGGATCTTGAAAGAGGAATCCAGCGAGACACTTAGAATGACAATTGCATCTGTACCTACTTCGCGCTACCTTTCTGACATGACCCTCGAGGAAATGTCACGAGACTGGTTCATGCTCATGCCTAGGCAAAAGATAATAGGCCCTCTTTGCGTGCGATTGGACCAGGCGATCATGGAAAAGAACATAGTACTGAAAGCGAACTTCAGTGTAATCTTTAACCGATTAGAGACCTTGATACTACTAAGGGCTTTCACTGAGGAGGGAGCAATAGTTGGAGAAATTTCACCATTACCTTCTCTTCCAGGACATACTTATGAGGATGTCAAAAATGCAGTTGGGGTCCTCATCGGAGGACTTGAATGGAATGGTAACACGGTTCGAGTCTCTGAAAATATACAGAGATTCGCTTGGAGAAACTGTGATGAGAATGGGAGACCTTCACTACCTCCAGAGCAGAAATGAAAAGTGGCGAGAGCAATTGGGACAGAAATTTGAGGAAATAAGGTGGTTAATTGAAGAAATGCGGCACAGATTGAAAGCGACAGAGAATAGTTTCGAACAAATAACATTTATGCAAGCCTTACAACTACTGCTTGAAGTAGAACAAGAGATAAGAGCTTTCTCGTTTCAGCTTATTTAATGATAAAAAACACCCTTGTTTCTAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGTCAATTATATTCAGTATGGAAAGAATAAAAGAACTACGGAACCTGATGTCGCAGTCTCGCACTCGCGAGATACTGACAAAAACCACAGTGGACCATATGGCCATAATTAAGAAGTACACATCGGGGAGACAGGAAAAGAACCCGTCACTTAGGATGAAATGGATGATGGCAATGAAATACCCAATCACTGCTGACAAAAGGATAACAGAAATGGTTCCGGAGAGAAATGAACAAGGACAAACTCTATGGAGTAAAATGAGTGATGCTGGATCAGATCGAGTGATGGTATCACCTTTGGCTGTAACATGGTGGAATAGAAATGGACCCGTGGCAAGTACGGTCCATTACCCAAAAGTATACAAGACTTATTTTGACAAAGTCGAAAGGTTAAAACATGGAACCTTTGGCCCTGTTCATTTTAGAAATCAAGTCAAGATACGCAGAAGAGTAGACATAAACCCTGGTCATGCAGACCTCAGTGCCAAAGAGGCACAAGATGTAATTATGGAAGTTGTTTTTCCCAATGAAGTGGGAGCCAGGATACTAACATCAGAATCGCAATTAACAATAACTAAAGAGAAAAAAGAAGAACTCCGAGATTGCAAAATTTCTCCCTTGATGGTTGCATACATGTTAGAGAGAGAACTTGTCCGAAAAACAAGATTTCTCCCAGTTGCTGGCGGAACAAGCAGTATATACATTGAAGTCTTACATTTGACTCAAGGAACGTGTTGGGAACAAATGTACACTCCAGGTGGAGAAGTGAGGAATGACGATGTTGACCAAAGCCTAATTATTGCGGCCAGGAACATAGTAAGAAGAGCTGCAGTATCAGCAGATCCACTAGCATCTTTATTGGAGATGTGCCACAGCACACAAATTGGCGGGACAAGGATGGTGGACATTCTTAGACAGAACCCGACTGAAGAACAAGCTGTGGATATATGCAAGGCTGCAATGGGATTGAGAATCAGCTCATCCTTCAGCTTTGGTGGGTTTACATTTAAAAGAACAAGCGGGTCATCAGTCAAAAAAGAGGAAGAAGTGCTTACAGGCAATCTCCAAACATTGAAGATAAGAGTACATGAGGGGTATGAGGAGTTCACAATGGTGGGGAAAAGAGCAACAGCTATACTCAGAAAAGCAACCAGAAGATTGGTTCAGCTCATAGTGAGTGGAAGAGACGAACAGTCAATAGCCGAAGCAATAATCGTGGCCATGGTGTTTTCACAAGAGGATTGCATGATAAAAGCAGTTAGAGGTGACCTGAATTTCGTCAACAGAGCAAATCAACGGTTGAACCCCATGCATCAGCTTTTAAGGCATTTTCAGAAAGATGCGAAAGTGCTTTTTCAAAATTGGGGAATTGAACACATCGACAGTGTGATGGGAATGGTTGGAGTATTACCAGATATGACTCCAAGCACAGAGATGTCAATGAGAGGAATAAGAGTCAGCAAAATGGGTGTGGATGAATACTCCAGTACAGAGAGGGTGGTGGTTAGCATTGATCGGTTTTTGAGAGTTCGAGACCAACGCGGGAATGTATTATTGTCTCCTGAGGAGGTCAGTGAAACACAGGGAACTGAAAGATTGACAATAACATATTCATCGTCGATGATGTGGGAGATTAACGGTCCTGAGTCGGTTTTGGTCAATACCTATCAATGGATCATCAGAAATTGGGAAGCTGTCAAAATTCAATGGTCTCAGAATCCTGCAATGTTGTACAACAAAATGGAATTTGAACCATTTCAATCTTTAGTCCCCAAGGCCATTAGAAGCCAATACAGTGGGTTTGTCAGAACTCTATTCCAACAAATGAGAGACGTACTTGGGACATTTGACACCACCCAGATAATAAAGCTTCTCCCTTTTGCAGCCGCTCCACCAAAGCAAAGCAGAATGCAGTTCTCTTCACTGACTGTAAATGTGAGGGGATCAGGGATGAGAATACTTGTAAGGGGCAATTCTCCTGTATTCAACTACAACAAGACCACTAAAAGACTAACAATTCTCGGAAAAGATGCCGGCACTTTAATTGAAGACCCAGATGAAAGCACATCCGGAGTGGAGTCCGCCGTCTTGAGAGGGTTTCTCATTATAGGTAAGGAAGACAGAAGATACGGACCAGCATTAAGCATCAATGAACTGAGTAACCTTGCAAAAGGGGAAAAGGCTAATGTGCTAATCGGGCAAGGAGACGTGGTGTTGGTAATGAAACGAAAACGGGACTCTAGCATACTTACTGACAGCCAGACAGCGACCAAAAGAATTCGGATGGCCATCAATTAATGTTGAATAGTTTAAAAACGACCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGCAAACCATTTGAATGGATGTCAATCCGACTCTACTGTTCCTAAAGGTTCCAGCGCAAAATGCCATAAGCACCACATTCCCTTATACTGGAGATCCTCCATACAGCCATGGAACAGGAACAGGATACACCATGGACACAGTCAACAGAACACACCAATATTCAGAGAAGGGGAAGTGGACGACAAATACAGAAACTGGGGCACCCCAACTCAACCCAATTGATGGACCACTACCTGAGGATAATGAGCCAAGTGGATATGCACAAACAGACTGTGTCCTGGAGGCTATGGCCTTCCTTGAAGAATCCCACCCAGGTATCTTTGAGAACTCATGCCTTGAAACAATGGAAGTCGTTCAACAAACAAGGGTGGACAAACTAACCCAAGGCCGCCAGACTTATGATTGGACATTAAACAGAAATCAACCGGCAGCAACTGCATTAGCCAACACCATAGAAGTTTTTAGATCGAATGGACTAACAGCCAATGAATCAGGAAGGCTAATAGATTTCCTCAAGGATGTGATGGAATCAATGGATAAAGAGGAAATGGAGATAACAACACACTTTCAAAGAAAAAGGAGAGTAAGAGACAACATGACCAAGAAAATGGTCACACAAAGAACAATAGGGAAGAAAAAACAAAGAGTGAATAAGAGAGGCTATCTAATAAGAGCTTTGACATTGAACACGATGACCAAAGATGCAGAGAGAGGTAAATTAAAAAGAAGGGCTATTGCAACACCCGGGATGCAAATTAGAGGGTTCGTGTACTTCGTTGAAACTTTAGCTAGAAGCATTTGCGAAAAGCTTGAACAGTCTGGACTTCCGGTTGGGGGTAATGAAAAGAAGGCCAAACTGGCAAATGTTGTGAGAAAAATGATGACTAATTCACAAGACACTGAGCTTTCTTTCACAATCACTGGGGACAACACTAAGTGGAATGAAAATCAAAACCCTCGAATGTTTTTGGCGATGATTACATATATCACAAAAAATCAACCTGAGTGGTTCAGAAACATCCTGAGCATCGCACCAATAATGTTCTCAAACAAAATGGCAAGACTAGGAAAAGGATACATGTTCGAGAGTAAGAGAATGAAGCTCCGAACACAAATACCCGCAGAAATGCTAGCAAGCATTGACCTGAAGTATTTCAATGAATCAACAAGGAAGAAAATTGAGAAAATAAGGCCTCTTCTAATAGATGGCACAGCATCATTGAGCCCTGGGATGATGATGGGCATGTTCAACATGCTAAGTACGGTTTTAGGAGTCTCGGTACTGAATCTTGGGCAAAAGAAATACACCAAGACAACATACTGGTGGGATGGGCTCCAATCCTCCGACGATTTTGCCCTCATAGTGAATGCACCAAATCATGAGGGAATACAAGCAGGAGTGGATAGATTCTACAGGACCTGCAAGTTAGTGGGAATCAACATGAGCAAAAAGAAGTCCTATATAAATAAAACAGGGACATTTGAATTCACAAGCTTTTTTTATCGATATGGATTTGTGGCTAATTTTAGCATGGAGCTTCCCAGTTTTGGAGTGTCTGGAATAAACGAGTCAGCTGATATGAGTATTGGAGTAACAGTGATAAAGAACAACATGATAAACAATGACCTTGGGCCAGCAACAGCCCAGATGGCTCTCCAATTGTTCATCAAAGACTACAGATATACATATAGGTGCCATAGAGGAGACACACAAATTCAGACGAGAAGATCATTCGAGCTAAAGAAGCTGTGGGATCAAACCCAATCAAGGGCAGGACTATTGGTATCAGATGGGGGACCAAACTTATACAATATCCGGAACCTTCACATCCCTGAAGTCTGCTTAAAGTGGGAGCTAATGGATGAGAATTATCGGGGAAGACTTTGTAACCCCCTGAATCCCTTTGTCAGCCATAAAGAAATTGAGTCTGTAAACAATGCTGTAGTGATGCCAGCCCACGGTCCAGCCAAAAGTATGGAATATGATGCCGTTGCAACTACACACTCCTGGAATCCCAAGAGGAACCGCTCTATTCTAAACACTAGCCAAAGGGGAATTCTTGAGGATGAACAGATGTACCAAAAGTGCTGCAACTTGTTCGAGAAATTTTTCCCTAGTAGTTCATATAGGAGACCGATTGGAATTTCTAGCATGGTGGAGGCCATGGTGTCTAGGGCCCGGATTGATGCCAGAATTGACTTCGAGTCTGGACGGATTAAGAAGGAAGAGTTCTCTGAGATCATGAAGATCTGTTCCACCATTGAAGAACTCAGACGGCAAAAATAATGAATTTAGCTTGTCCTTCATGAAAAAATGCCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGTACTGATTCGAAATGGAAGATTTTGTGCGACAATGCTTCAACCCGATGATTGTCGAACTTGCAGAAAAAGCAATGAAAGAGTATGGAGAGGATCTGAAAATTGAAACAAACAAATTTGCAGCAATATGCACCCACTTGGAGGTATGTTTCATGTATTCAGATTTTCATTTCATCAATGAACAAGGCGAATCAATAGTGGTAGAACTTGATGATCCAAATGCACTGTTAAAGCACAGATTTGAAATAATCGAGGGGAGAGACAGAACAATGGCCTGGACAGTAGTAAACAGTATCTGCAACACTACTGGAGCAGAAAAACCAAAGTTTCTACCAGATTTGTATGATTACAAGGAGAATAGATTCATCGAAATTGGAGTGACAAGAAGAGAAGTCCACATATATTACCTTGAAAAGGCCAATAAAATTAAATCTGAGAACACACACATTCACATCTTCTCATTCACTGGGGAGGAAATAGCCACAAAGGCAGACTACACTCTCGACGAGGAAAGCAGGGCTAGGATTAAAACCAGGCTATTTACCATAAGACAAGAAATGGCCAACAGAGGCCTCTGGGATTCCTTTCGTCAGTCCGAAAGAGGCGAAGAAACAATTGAAGAAAAATTTGAAATCTCAGGAACTATGCGTAGGCTTGCCGACCAAAGTCTCCCACCGAAATTCTCCTGCCTTGAGAATTTTAGAGCCTATGTGGATGGATTCGAACCGAACGGCTGCATTGAGGGCAAGCTTTCTCAAATGTCCAAAGAAGTGAATGCCAAAATTGAACCTTTTCTGAAGACAACACCAAGACCAATCAAACTTCCTAATGGACCTCCTTGTTATCAGCGGTCCAAATTCCTCCTGATGGATGCTTTGAAATTGAGCATTGAAGACCCAAGTCATGAAGGAGAAGGGATTCCATTATATGATGCGATCAAGTGCATAAAAACATTCTTTGGATGGAAAGAACCTTATATAGTCAAACCACACGAAAAGGGAATAAATTCAAATTACCTGCTGTCATGGAAGCAAGTATTGTCAGAATTGCAGGACATTGAAAATGAGGAGAAGATCCCAAGGACTAAAAACATGAAGAAAACGAGTCAACTAAAGTGGGCTCTTGGTGAAAACATGGCACCAGAGAAAGTAGACTTTGACAACTGCAGAGACATAAGCGATTTGAAGCAATATGATAGTGACGAACCTGAATTAAGGTCACTTTCAAGCTGGATACAGAATGAGTTCAACAAGGCCTGCGAGCTAACTGATTCAATCTGGATAGAGCTCGATGAAATTGGAGAGGACGTAGCCCCAATTGAGTACATTGCAAGCATGAGGAGGAATTATTTCACAGCAGAGGTGTCCCATTGTAGAGCCACTGAGTACATAATGAAGGGGGTATACATTAATACTGCCCTGCTCAATGCATCCTGTGCAGCAATGGACGATTTTCAACTAATTCCCATGATAAGCAAGTGCAGAACTAAAGAGGGAAGGCGAAAAACCAATTTATATGGATTCATCATAAAGGGAAGATCTCATTTAAGGAATGACACAGATGTGGTAAACTTTGTGAGCATGGAGTTTTCTCTCACTGACCCGAGACTTGAGCCACATAAATGGGAGAAATACTGTGTCCTTGAGATAGGAGATATGTTACTAAGAAGTGCCATAGGCCAAATTTCAAGGCCTATGTTCTTGTATGTGAGGACAAACGGAACATCAAAGGTCAAAATGAAATGGGGAATGGAGATGAGACGTTGCCTCCTTCAGTCACTCCAGCAGATCGAGAGCATGATTGAAGCCGAGTCCTCGATTAAAGAGAAAGACATGACCAAAGAGTTTTTTGAGAATAAATCAGAAGCATGGCCCATTGGGGAGTCCCCCAAGGGAGTGGAAGAAGGTTCCATTGGGAAAGTCTGTAGGACTCTATTGGCTAAGTCAGTGTTCAATAGCCTGTATGCATCACCACAATTGGAAGGATTTTCAGCGGAGTCAAGAAAACTGCTTCTTGTTGTTCAGGCTCTTAGGGACAACCTCGAACCTGGGACCTTTGATCTCGGGGGGCTATATGAAGCAATTGAGGAGTGCCTGATTAATGATCCCTGGGTTTTGCTCAATGCATCTTGGTTCAACTCCTTCCTGACACATGCATTAAAATAGTTATGGCAGTGCTACTATTTGTTATCCGTACTGTCCAAAAAAGTACCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGGGATAATTCTATTAACCATGAAGACTATCATTGCTTTGAGCTACATTCTATGTCTGGTTTTCGCTCAAAAACTTCCCGGAAATGACAACAGCACGGCAACGCTGTGCCTTGGGCACCATGCAGTACCAAACGGAACGATAGTGAAAACAATCACGAATGACCAAATTGAAGTCACTAATGCTACTGAACTGGTTCAGAGTTCCTCAACAGGTGGAATATGCGACAGTCCTCATCAGATCCTTGATGGAGAAAACTGCACACTAATAGATGCTCTATTGGGAGACCCTCAGTGTGATGGCTTCCAAAATAAGAAATGGGACCTTTTTGTTGAACGCAGCAAAGCCTACAGCAACTGTTACCCTTATGATGTGCCGGATTATGCCTCCCTTAGGTCACTAGTTGCCTCATCCGGCACACTGGAGTTTAACAATGAAAGCTTCAATTGGACTGGAGTCACTCAAAATGGAACAAGCTCTGCTTGCAAAAGGAGATCTAATAACAGTTTCTTTAGTAGATTGAATTGGTTGACCCACTTAAAATTCAAATACCCAGCATTGAACGTGACTATGCCAAACAATGAAAAATTTGACAAACTGTACATTTGGGGGGTTCACCACCCGGGTACGGACAATGACCAAATCAGCCTATATGCTCAAGCATCAGGAAGAATCACAGTCTCTACCAAAAGAAGCCAACAAACCGTAATCCCGAGTATCGGATCTAGACCCAGGATAAGGGATGTCCCCAGCAGAATAAGCATCTATTGGACAATAGTAAAACCGGGAGACATACTTTTGATTAACAGCACAGGGAATCTAATTGCTCCTCGGGGTTACTTCAAAATACGAAGTGGGAAAAGCTCAATAATGAGATCAGATGCACCCATTGGCAAATGCAATTCTGAATGCATCACTCCAAATGGAAGCATTCCCAATGACAAACCATTTCAAAATGTAAACAGGATCACATATGGGGCCTGTCCCAGATATGTTAAGCAAAACACTCTGAAATTGGCAACAGGGATGCGAAATGTACCAGAGAAACAAACTAGAGGCATATTTGGCGCAATCGCGGGTTTCATAGAAAATGGTTGGGAGGGAATGGTAGACGGTTGGTACGGTTTCAGGCATCAAAATTCTGAGGGAACAGGACAAGCAGCAGATCTCAAAAGCACTCAAGCAGCAATCAACCAAATCAATGGGAAGCTGAATAGGTTGATCGGGAAAACAAACGAGAAATTCCATCAGATTGAAAAAGAATTCTCAGAAGTAGAAGGGAGAATTCAGGACCTCGAGAAATATGTTGAGGACACTAAAATAGATCTCTGGTCATACAACGCGGAGCTTCTTGTGGCCCTGGAGAACCAACATACAATTGATCTAACTGACTCAGAAATGAACAAACTGTTTGAAAGAACAAAGAAGCAACTGAGGGAAAATGCTGAGGATATGGGCAATGGTTGTTTCAAAATATACCACAAATGTGACAATGCCTGCATAGGGTCAATCAGAAATGGAACTTATGACCATGATGTATACAGAGATGAAGCATTAAACAACCGGTTCCAGATCAAAGGTGTTGAGTTGAAGTCAGGATACAAAGATTGGATCCTATGGATTTCCTTTGCCATATCATGTTTTTTGCTTTGTGTTGCTTTGTTGGGGTTCATCATGTGGGCCTGCCAAAAAGGCAACATTAGGTGCAACATTTGCATTTGAGTGCATTAATTAAAAACACCCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGGTTAATAATCACTCACCGAGTGACATCAAAATCATGGCGTCCCAAGGCACCAAACGGTCTTATGAACAGATGGAAACTGATGGGGATCGCCAGAATGCAACTGAGATTAGGGCATCCGTCGGGAAGATGATTGATGGAATTGGGAGATTCTACATCCAAATGTGCACTGAACTTAAACTCAGTGATCATGAAGGGCGGTTGATCCAGAACAGCTTGACAATAGAGAAAATGGTGCTCTCTGCTTTTGATGAAAGAAGGAATAAATACCTGGAAGAACACCCCAGCGCGGGGAAAGATCCCAAGAAAACTGGGGGGCCCATATACAGGAGAGTAGATGGAAAATGGATGAGGGAACTCGTCCTTTATGACAAAGAAGAGATAAGGCGAATCTGGCGCCAAGCCAACAATGGTGAGGATGCGACAGCTGGTCTAACTCACATAATGATCTGGCATTCCAATTTGAATGATGCAACATACCAGAGGACAAGAGCTCTTGTTCGAACTGGAATGGATCCCAGAATGTGCTCTCTGATGCAGGGCTCGACTCTCCCTAGAAGGTCCGGAGCTGCAGGTGCTGCAGTCAAAGGAATCGGGACAATGGTGATGGAACTGATCAGAATGGTCAAACGGGGGATCAACGATCGAAATTTCTGGAGAGGTGAGAATGGGCGGAAAACAAGAAGTGCTTATGAGAGAATGTGCAACATTCTTAAAGGAAAATTTCAAACAGCTGCACAAAGAGCAATGGTGGATCAAGTGAGAGAAAGTCGGAACCCAGGAAATGCTGAGATCGAAGATCTCATATTTTTGGCAAGATCTGCATTGATATTGAGAGGGTCAGTTGCTCACAAATCTTGCCTACCTGCCTGTGCGTATGGACCTGCAGTATCCAGTGGGTACGACTTCGAAAAAGAGGGATATTCCTTGGTGGGAATAGACCCTTTCAAACTACTTCAAAATAGCCAAATATACAGCCTAATCAGACCTAACGAGAATCCAGCACACAAGAGTCAGCTGGTGTGGATGGCATGCCATTCTGCTGCATTTGAAGATTTAAGATTGTTAAGCTTCATCAGAGGGACAAAAGTATCTCCGCGGGGGAAACTGTCAACTAGAGGAGTACAAATTGCTTCAAATGAGAACATGGATAATATGGGATCGAGCACTCTTGAACTGAGAAGCGGGTACTGGGCCATAAGGACCAGGAGTGGAGGAAACACTAATCAACAGAGGGCCTCCGCAGGCCAAACCAGTGTGCAACCTACGTTTTCTGTACAAAGAAACCTCCCATTTGAAAAGTCAACCATCATGGCAGCATTCACTGGAAATACGGAGGGAAGGACTTCAGACATGAGGGCAGAAATCATAAGAATGATGGAAGGTGCAAAACCAGAAGAAGTGTCATTCCGGGGGAGGGGAGTTTTCGAGCTCTCAGACGAGAAGGCAACGAACCCGATCGTGCCCTCTTTTGATATGAGTAATGAAGGATCTTATTTCTTCGGAGACAATGCAGAAGAGTACGACAATTAAGGAAAAAATACCCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGAGTAAAGATGAATCCAAATCAAAAGATAATAACGATTGGCTCTGTTTCTCTCACCATTTCCACAATATGCTTCTTCATGCAAATTGCCATCCTGATAACCACTGTAACATTGCATTTCAAGCAATATGAATTCAACTCCCCCCCAAACAACCAAGTGATGCTGTGTGAACCAACAATAATAGAAAGAAACATAACAGAGATAGTGTATCTGACCAACACCACCATAGAGAAGGAAATGTGCCCCAAACTAGCAGAATACAGAAATTGGTCAAAGCCGCAATGTGACATTACAGGATTTGCACCTTTTTCTAAGGACAATTCGATTAGGCTTTCCGCTGGTGGGGACATCTGGGTGACAAGAGAACCTTATGTGTCATGCGACCCTGACAAGTGTTACCAATTTGCCCTTGGACAGGGAACAACACTAAACAACGTGCATTCAAATGACACAGTACATGATAGGACCCCTTATCGGACCCTATTGATGAATGAATTAGGTGTTCCATTTCATCTGGGGACCAAGCAAGTGTGCATAGCATGGTCCAGCTCAAGTTGTCACGATGGAAAAGCATGGCTGCATGTTTGTGTAACGGGGGATGATAAAAATGCAACTGCTAGCTTCATTTACAATGGGAGGCTTGTAGATAGTATTGTTTCATGGTCCAAAAAAATCCTCAGGACCCAGGAGTCAGAATGCGTTTGTATCAATGGAACTTGTACAGTAGTAATGACTGATGGGAGTGCTTCAGGAAAAGCTGATACTAAAATACTATTCATTGAGGAGGGGAAAATCATTCATACTAGCACATTGTCAGGAAGTGCTCAGCATGTCGAGGAGTGCTCCTGCTATCCTCGATATCCTGGTGTCAGATGTGTCTGCAGAGACAACTGGAAAGGCTCCAATAGGCCCATCGTAGATATAAACATAAAGGATTATAGCATTGTTTCCAGTTATGTGTGCTCAGGGCTTGTTGGAGACACACCCAGAAAAAACGACAGCTCCAGCAGTAGCCATTGCTTGGATCCTAACAATGAAGAAGGTGGTCATGGAGTGAAAGGCTGGGCCTTTGATGATGGAAATGACGTGTGGATGGGAAGAACGATCAGCGAGAAGTTACGCTCAGGATATGAAACCTTCAAAGTCATTGAAGGCTGGTCCAAACCTAATTCCAAATTGCAGATAAATAGGCAAGTCATAGTTGACAGAGGTAATAGGTCCGGTTATTCTGGTATTTTCTCTGTTGAAGGCAAAAGCTGCATCAATCGGTGCTTTTATGTGGAGTTGATAAGGGGAAGAAAAGAGGAAACTGAAGTCTTGTGGACCTCAAACAGTATTGTTGTGTTTTGTGGCACCTCAGGTACATATGGAACAGGCTCATGGCCTGATGGGGCGGACATCAATCTCATGCCTATATAAGCTTTCGCAATTTTAGAAAAAAACTCCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGTAGATATTGAAAGATGAGCCTTCTAACCGAGGTCGAAACGTATGTTCTCTCTATCGTTCCATCAGGCCCCCTCAAAGCCGAGATCGCGCAGAGACTTGAAGATGTCTTTGCTGGGAAAAACACAGATCTTGAGGCTCTCATGGAATGGCTAAAGACAAGACCAATTCTGTCACCTCTGACTAAGGGGATTTTGGGGTTTGTGTTCACGCTCACCGTGCCCAGTGAGCGAGGACTGCAGCGTAGACGCTTTGTCCAAAATGCCCTCAATGGGAATGGAGATCCAAATAACATGGACAAAGCAGTTAAACTGTATAGGAAACTTAAGAGGGAGATAACGTTCCATGGGGCCAAAGAAATAGCTCTCAGTTATTCTGCTGGTGCACTTGCCAGTTGCATGGGCCTCATATACAATAGGATGGGGGCTGTAACCACTGAAGTGGCATTTGGCCTGGTATGTGCAACATGTGAACAGATTGCTGACTCCCAGCACAGGTCTCATAGGCAAATGGTGGCAACAACCAATCCATTAATAAAACATGAGAACAGAATGGTTTTGGCCAGCACTACAGCTAAGGCTATGGAGCAAATGGCTGGATCAAGTGAGCAGGCAGCGGAGGCCATGGAAATTGCTAGTCAGGCCAGGCAAATGGTGCAGGCAATGAGAGCCGTTGGGACTCATCCTAGCTCCAGTACTGGTCTAAGAGATGATCTTCTTGAAAATTTGCAGACCTATCAGAAACGAATGGGGGTGCAGATGCAACGATTCAAGTGACCCGCTTGTTGTTGCCGCGAGTATCATTGGGATCTTGCACTTGATATTGTGGATTCTTGATCGTCTTTTTTTCAAATGCGTCTATCGACTCTTCAAACACGGCCTTAAAAGAGGCCCTTCTACGGAAGGAGTACCTGAGTCTATGAGGGAAGAATATCGAAAGGAACAGCAGAATGCTGTGGATGCTGACGACAGTCATTTTGTCAGCATAGAGTTGGAGTAAAAAACTACCTTGTTTCTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGCAAAAGCAGGGTGACAAAGACATAATGGATTCCAACACTGTGTCAAGTTTCCAGGTAGATTGCTTTCTTTGGCATATCCGGAAACAAGTTGTAGACCAAGAACTGAGTGATGCCCCATTCCTTGATCGGCTTCGCCGAGATCAGAGGTCCCTAAGGGGAAGAGGCAATACTCTCGGTCTAGACATCAAAGCAGCCACCCATGTTGGAAAGCAAATTGTAGAAAAGATTCTGAAAGAAGAATCTGATGAGGCACTTAAAATGACCATGGTCTCCACACCTGCTTCGCGATACATAACTGACATGACTATTGAGGAATTGTCAAGAAACTGGTTCATGCTAATGCCCAAGCAGAAAGTGGAAGGACCTCTTTGCATCAGAATGGACCAGGCAATCATGGAGAAAAACATCATGTTGAAAGCGAATTTCAGTGTGATTTTTGACCGACTAGAGACCATAGTATTACTAAGGGCTTTCACCGAAGAGGGAGCAATTGTTGGCGAAATCTCACCATTGCCTTCTTTTCCAGGACATACTATTGAGGATGTCAAAAATGCAATTGGGGTCCTCATCGGAGGACTTGAATGGAATGATAACACAGTTCGAGTCTCTAAAAATCTACAGAGATTCGCTTGGAGAAGCAGTAATGAGAATGGGGGACCTCCACTTACTCCAAAACAGAAACGGAAAATGGCGAGAACAGCTAGGTCAAAAGTTTGAAGAGATAAGATGGCTGATTGAAGAAGTGAGACACAGACTAAAAACAACTGAAAATAGCTTTGAACAAATAACATTCATGCAAGCATTACAACTGCTGTTTGAAGTGGAACAGGAGATAAGAACTTTCTCATTTCAGCTTATTTAATGATAAAAAACACCCTTGTTTCTACT</t>
   </si>
 </sst>
 </file>
@@ -452,19 +401,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="87.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="31.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="87.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,111 +428,135 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
+      <c r="B9" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -592,188 +564,17 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data_backend/resources/domain_data/data_reference_segment.xlsx
+++ b/data_backend/resources/domain_data/data_reference_segment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">reference_seg_id</t>
   </si>
@@ -40,73 +40,49 @@
     <t xml:space="preserve">PB2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGGAGAGAATAAAAGAACTAAGAGATTTAATGTCGCAGTCTCGCACTCGCGAGATACTGATAAAAACCACTGTGGACCATATGGCCATAATAAAGAAATACACATCAGGAAGACAGGAGAAGAACCCTGCCCTCAGGATGAAGTGGATGATGGCAATGAAATATCCTATTACAGCAGACAAAAGAATAATGGAGATGATCCCTGAAAGGAATGAGCAAAATCAGACTCTCTGGAGCAAAACAAATGACGCTGGATCAGACAGAGTGATGGTATCACCTCTGGCTGTGACATGGTGGAATAGAAATGGGCCAACAACAAGTACAGTCCATTACCCAAAGGTTTACAAAACCTACTTTGAAAAAGTGGAAAGATTGAAACATGGAACCTTTGGCCCTGTTCACTTTCGAAATCAGGTTAAGATACGCCGCAGGGTTGACATAAACCCGGGTCATGCAGATCTCAGTGCCAAAGAAGCACAGGATGTCATCATGGAAGTCGTTTTCCCAAATGAAGTTGGAGCCAGGATATTGACATCAGAATCACAATTAACAATAACAAAGGAAAAGAAGGAGGAACTTCAGGACTGTAAGATTGCTCCTTTGATGGTGGCATACATGTTGGAGAGAGAACTGGTTCGAAAAACCAGATTTTTACCAGTAGCTGGCGGAACAAGCAGCGTTTATATCGAAGTATTGCATTTGACTCAAGGGACCTGCTGGGAACAAATGTACACACCGGGAGGGGAAGTGAGAAATGATGATATTGATCAGACTTTGATCATTGCTGCTAGAAATATCGTTAGGAGAGCAACAGTATCAGCAGACCCATTGGCTTCGCTCTTGGAAATGTGCCACAGTACACAAATTGGTGGAATAAGAATGGTAGACATTCTTAGACAGAACCCAACAGAAGAGCAAGCCGTGGATATATGCAAAGCAGCAATGGGTTTAAGAATCAGTTCATCCTTCAGCTTTGGAGGTTTCACTTTCAAAAGAACAAGTGGATCGTCTGTCAAAAGAGAAGAAGAAGTGCTCACAGGCAACCTCCAAACACTGAAAATAAGAGTACATGAAGGATATGAGGAATTCACAATGGTTGGACGGAGAGCTACAGCCATTTTAAGGAAAGCAACCAGAAGGCTGATCCAATTAATAGTGAGTGGAAGAGACGAGCAGTCAATCGCTGAAGCAATCATAGTGGCAATGGTTTTCTCACAAGAGGACTGCATGATAAAAGCAGTACGAGGTGATCTGAACTTTGTTAATAGAGCAAATCAGCGACTAAATCCTATGCATCAACTTCTGAGGCATTTCCAAAAGGATGCAAAGGTGCTGTTTCAAAACTGGGGGGTTGAACCAATTGACAATGTAATGGGGATGATTGGAATACTGCCTGACATGACCCCCAGCACGGAGATGTCACTGAGAGGAGTGAGAGTCAGCAAAATGGGAGTGGATGAATATTCCAGTACTGAGAGAGTGGTCGTGAGCATTGATCGTTTCTTGAGAGTCCGAGATCAAAGAGGAAACGTGCTCCTGTCTCCTGAGGAAGTTAGTGAAACACAGGGAACAGAGAAACTAACGATAACATATTCATCGTCCATGATGTGGGAAATCAATGGTCCGGAATCCGTGCTAGTCAACACATATCAATGGATCATCAGAAATTGGGAGACTGTGAAGATTCAATGGTCCCAAGACCCTACGATGTTGTACAACAAGATGGAATTTGAGCCCTTCCAATCCTTGGTGCCCAAGGCTGCCAGAGGCCAGTATAGTGGATTTGTGAGGACATTGTTCCAGCAGATGCGTGATGTGCTGGGAACATTTGATACTGTCCAAATAATAAAGCTCCTGCCTTTTGCTGCAGCCCCACCGGAACAGAGTAGGATGCAGTTTTCCTCTCTGACTGTGAACGTAAGAGGTTCAGGAATGAGAATACTCGTGAGAGGCAACTCCCCTGTGTTCAACTATAACAAGGCCACCAAGAGACTCACAGTTCTTGGAAAGGATGCAGGTGCCTTGACAGAAGATCCAGATGAGGGAACAGCAAGAGTAGAGTCTGCAGTATTAAGAGGATTTCTAATTCTGGGCAGAGAGGACAAAAGATATGGACCAGCATTGAGCATCAACGAACTGAGCAATCTTGCGAAAGGGGAAAAGGCTAATGTGTTGATAGGGCAAGGAGACGTAGTGTTGGTAATGAAACGGAAACGGGACTCTAGCATACTTACTGACAGCCAGACAGCGACCAAAAGAATTCGGATGGCCATCAATTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERIKELRDLMSQSRTREILIKTTVDHMAIIKKYTSGRQEKNPALRMKWMMAMKYPITADKRIMEMIPERNEQNQTLWSKTNDAGSDRVMVSPLAVTWWNRNGPTTSTVHYPKVYKTYFEKVERLKHGTFGPVHFRNQVKIRRRVDINPGHADLSAKEAQDVIMEVVFPNEVGARILTSESQLTITKEKKEELQDCKIAPLMVAYMLERELVRKTRFLPVAGGTSSVYIEVLHLTQGTCWEQMYTPGGEVRNDDIDQTLIIAARNIVRRATVSADPLASLLEMCHSTQIGGIRMVDILRQNPTEEQAVDICKAAMGLRISSSFSFGGFTFKRTSGSSVKREEEVLTGNLQTLKIRVHEGYEEFTMVGRRATAILRKATRRLIQLIVSGRDEQSIAEAIIVAMVFSQEDCMIKAVRGDLNFVNRANQRLNPMHQLLRHFQKDAKVLFQNWGVEPIDNVMGMIGILPDMTPSTEMSLRGVRVSKMGVDEYSSTERVVVSIDRFLRVRDQRGNVLLSPEEVSETQGTEKLTITYSSSMMWEINGPESVLVNTYQWIIRNWETVKIQWSQDPTMLYNKMEFEPFQSLVPKAARGQYSGFVRTLFQQMRDVLGTFDTVQIIKLLPFAAAPPEQSRMQFSSLTVNVRGSGMRILVRGNSPVFNYNKATKRLTVLGKDAGALTEDPDEGTARVESAVLRGFLILGREDKRYGPALSINELSNLAKGEKANVLIGQGDVVLVMKRKRDSSILTDSQTATKRIRMAIN*</t>
+    <t xml:space="preserve">AGCAAAAGCAGGTCAATTATATTCAATATGGAAAGAATAAAAGAACTAAGAGATCTAATGTCGCAGTCCCGCACTCGCGAGATACTAACAAAAACCACTGTGGATCATATGGCCATAATCAAGAAATACACATCAGGAAGACAAGAGAAGAACCCTGCTCTCAGAATGAAATGGATGATGGCAATGAAATATCCAATCACAGCAGACAAGAGAATAATGGAGATGATTCCTGAAAGGAATGAGCAAGGACAAACGCTTTGGAGCAAGACAAATGATGCTGGGTCGGACAGAGTGATGGTGTCTCCCCTAGCTGTAACTTGGTGGAACAGGAATGGGCCGACAACAAGTACAGTCCATTATCCAAAGGTTTACAAAACATACTTTGAGAAGGTTGAAAGGTTAAAACATGGAACCTTCGGTCCCGTTCATTTCCGAAACCAAGTTAAAATACGTCGCCGGGTGGATATAAACCCGGGCCATGCAGATCTCAGTGCTAAAGAAGCACAAGATGTTATCATGGAGGTCGTTTTCCCAAATGAAGTGGGAGCTAGAATATTGACATCAGAGTCGCAATTGACAATAACAAAAGAGAAGAAAGAAGAGCTCCAGGATTGTAAAATTGCTCCTTTAATGGTGGCATACATGTTGGAAAGAGAACTGGTCCGCAAAACCAGATTTCTACCGGTAGCAGGCGGAACAAGCAGTGTGTACATTGAGGTATTGCATTTGACTCAAGGGACCTGTTGGGAACAGATGTACACTCCCGGCGGAGAAGTAAGAAATGATGATGTTGACCAGAGTTTGATCATCGCTGCCAGAAACATTGTTAGGAGAGCAACAGTATCAGCGGACCCACTGGCATCACTCTTGGAGATGTGTCACAGCACACAAATTGGGGGAATAAGGATGGTGGACATCCTTAGGCAAAACCCAACTGAGGAGCAAGCTGTGGATATATGCAAAGCAGCAATGGGTTTGAGGATCAGTTCATCCTTTAGCTTTGGAGGCTTCACTTTCAAAAGAACAAATGGATCATCCGTCAAGAAGGAAGAGGAAGTGCTTACAGGCAACCTCCAAACATTGAAAATAAAAGTACATGAGGGGTATGAAGAATTCACAATGGTTGGGCGGAGAGCAACAGCTATCCTGAGGAAAGCAACTAGAAGGCTGATTCAGTTGATAGTAAGTGGAAGAGATGAACAATCAATCGCTGAAGCGATCATTGTAGCAATGGTGTTCTCACAGGAGGATTGCATGATAAAGGCAGTCCGAGGCGATCTGAATTTCGTGAACAGAGCAAACCAAAGATTGAACCCCATGCATCAACTCCTGAGGCACTTCCAAAAAGATGCAAAAGTGCTGTTTCAGAACTGGGGAATTGAACCTATTGACAATGTCATGGGGATGATCGGAATATTACCTGACATGACTCCAAGCGCAGAGATGTCACTGAGAGGAGTGAGAGTTAGTAAGATGGGAGTAGATGAATATTCCAGCACGGAGAGAGTGGTGGTGAGTATTGACCGTTTCTTGAGGGTCCGAGATCAGCAGGGGAACGTACTCTTATCTCCTGAAGAGGTTAGTGAAACACAGGGAACAGAGAAGTTGACAATAACATATTCATCCTCAATGATGTGGGAAATCAACGGTCCTGAGTCAGTGCTTGTTAACACTTATCAATGGATCATCAGGAATTGGGAGACTGTAAAGATTCAATGGTCTCAAGATCCCACAATGCTGTACAATAAGATGGAGTTTGAATCGTTCCAATCCTTGGTGCCAAAGGCTGCCAGAAGCCAATATAGTGGATTTGTGAGAACACTATTCCAACAGATGCGTGATGTTTTGGGGACATTTGATACTGTCCAAATAATCAAGCTGCTACCATTTGCAGCAGCCCCACCGGAGCCGAGCAGAATGCAGTTTTCTTCTCTAACTGTGAATGTGAGAGGCTCAGGAATGAGAATACTCGTGAGGGGTAACTCCCCCGTGTTCAACTACAACAAGGCAACCAAAAGGCTTACAGTCCTCGGAAAGGACGCAGGTGCATTAACAGAAGATCCAGACGAGGGAACAGCCGGGGTGGAATCTGCAGTATTGAGGGGATTCCTAATTCTAGGCAGAGAGGACAAAAGATATGGACCCGCATTGAGCATCAATGAACTGAGCAATCTTGCAAAAGGGGAGAAGGCTAATGTATTGATAATGCAAGGAGACGTGGTGTTGGTAATGAAACGGAAACGGGACTTTAGCATACTTACTGACAGCCAGACAGCGACCAAAAGAATTCGGATGGCCATCAATTAGTGTTGAATAGTTTAAAAACGACCTTGTTTCTACT</t>
   </si>
   <si>
     <t xml:space="preserve">PB1</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGGATGTCAATCCGACTCTACTTTTCTTAAAAGTGCCAGCGCAAGATGCCATAAGTACCACATTCCCTTACACTGGAGATCCTCCATACAGCCATGGAACAGGGACAGGATACACAATGGACACAGTCAACAGAACACATCAATACTCAGAAAAGGGAAAATGGACAACAAACACAGAAACCGGAGCACCTCAACTCAATCCAATTGATGGGCCACTACCTGAGGACAACGAACCGAGCGGGTATGCACAAACAGATTGCGTGTTGGAAGCAATGGCTTTCCTTGAAGAGTCCCATCCAGGGATCTTTGAAAACTCTTGCCTTGAAACGATGGAGGTCGTTCAGCAAACAAGAGTGGACAAACTAACTCAAGGTCGCCAGACATATGACTGGACACTGAATAGAAACCAACCAGCTGCAACTGCCCTGGCCAACACTATAGAGGTCTACAGATCAAACGGTCTAACAGCCAATGAATCGGGGAGACTAATAGATTTCCTCAAGGATGTGATGGACTCAATGGATAAAGAAGAAATGGAAATGACAACACATTTCCAGAGAAAGAGAAGAGTAAGGGACAACATGACCAAGAAAATGGTCACACAAAGAACAATAGGAAAGAAGAAACAAAGGCTAAACAAGAGGAGCTACTTAATAAGAGCACTGACACTGAATACAATGACAAAAGATGCAGAAAGAGGCAAATTGAAGAGACGGGCGATTGCAACACCAGGGATGCAGATTAGAGGATTTGTGTACTTTGTCGAAACACTGGCAAGGAGCATCTGTGAAAAACTTGAGCAATCTGGACTCCCCGTTGGAGGGAATGAGAAGAAGGCTAAATTGGCAAATGTTGTGAGAAAAATGATGACTAACTCACAAGATACAGAGCTCTCCTTCACAATTACTGGAGATAACACCAAATGGAATGAGAATCAAAATCCTCGGATGTTTCTGGCAATGATAACATACATTACAAGAAACCAACCTGAATGGTTTAGGAATGTCTTGAGTATTGCCCCTATAATGTTCTCGAACAAAATGGCGAGATTGGGGAAAGGGTACATGTTTGAAAGTAAGAGCTTGAAGTTACGGACACAAATACCTGCAGAAATGCTTGCAAACATTGACTTAAAATATTTCAATGAATCAACAAGAAAGAAAATCGAAAAAATAAGGCCTCTACTAATAGATGGTACTGCCTCATTGAGTCCTGGAATGATGATGGGCATGTTCAATATGCTGAGTACAGTGTTAGGAGTTTCAATCCTAAATCTTGGGCAAAAGAAATACACCAAAACCACATACTGGTGGGATGGACTCCAATCCTCTGATGATTTCGCCCTCATAGTAAATGCACCGAATCATGAGGGAATACAAGCAGGAGTGGATAGGTTCTATAGGACCTGCAAACTGGTCGGGATCAATATGAGCAAAAAGAAGTCTTACATAAACCGGACTGGAACATTTGAGTTCACAAGCTTTTTCTATCGCTATGGATTTGTGGCTAACTTCAGTATGGAGCTGCCCAGCTTTGGAGTTTCTGGGATCAATGAATCAGCTGACATGAGCATTGGCATCACAGTGATAAAGAACAACATGATAAACAATGACCTTGGACCAGCAACAGCTCAAATGGCCCTTCAACTATTCATCAAAGATTACAGGTACACGTACCGATGCCATAGAGGTGACACACAAATTCAAACGAGGAGATCATTCGAGCTGAAGAAGCTGTGGGAACAGACCCGTTCAAAGGCAGGACTGTTGGTGTCAGATGGAGGACCAAATCTATACAACATTCGGAATCTCCATATCCCAGAGGTCTGCTTGAAGTGGGAGCTGATGGACGAAGATTACCAGGGCAGGTTGTGTAATCCTCTGAACCCATTTGTCAGCCATAAAGAAATTGAGTCCGTAAACAATGCTGTGGTGATGCCATCCCACGGTCCAGCCAAAAGCATGGAATATGATGCCGTTGCGACTACACACTCATGGATTCCTAAAAGGAATCGTTCCATTCTCAATACCAGTCAAAGGGGAATTCTTGAGGATGAACAGATGTACCAGAAATGCTGCGGTCTATTCGAGAAATTCTTTCCCAGTAGTTCATACAGGAGACCAGTTGGAATTTCCAGCATGGTGGAGGCCATGGTGTCTAGGGCCCGAATCGATGCGCGCATTGATTTCGAATCTGGAAGGATCAAAAAGGAAGAGTTTGCTGAGATCATGAAGATCTGTTCCACCATTGAAGAGCTCAGACGGCAAAAATAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDVNPTLLFLKVPAQDAISTTFPYTGDPPYSHGTGTGYTMDTVNRTHQYSEKGKWTTNTETGAPQLNPIDGPLPEDNEPSGYAQTDCVLEAMAFLEESHPGIFENSCLETMEVVQQTRVDKLTQGRQTYDWTLNRNQPAATALANTIEVYRSNGLTANESGRLIDFLKDVMDSMDKEEMEMTTHFQRKRRVRDNMTKKMVTQRTIGKKKQRLNKRSYLIRALTLNTMTKDAERGKLKRRAIATPGMQIRGFVYFVETLARSICEKLEQSGLPVGGNEKKAKLANVVRKMMTNSQDTELSFTITGDNTKWNENQNPRMFLAMITYITRNQPEWFRNVLSIAPIMFSNKMARLGKGYMFESKSLKLRTQIPAEMLANIDLKYFNESTRKKIEKIRPLLIDGTASLSPGMMMGMFNMLSTVLGVSILNLGQKKYTKTTYWWDGLQSSDDFALIVNAPNHEGIQAGVDRFYRTCKLVGINMSKKKSYINRTGTFEFTSFFYRYGFVANFSMELPSFGVSGINESADMSIGITVIKNNMINNDLGPATAQMALQLFIKDYRYTYRCHRGDTQIQTRRSFELKKLWEQTRSKAGLLVSDGGPNLYNIRNLHIPEVCLKWELMDEDYQGRLCNPLNPFVSHKEIESVNNAVVMPSHGPAKSMEYDAVATTHSWIPKRNRSILNTSQRGILEDEQMYQKCCGLFEKFFPSSSYRRPVGISSMVEAMVSRARIDARIDFESGRIKKEEFAEIMKICSTIEELRRQK*</t>
+    <t xml:space="preserve">AGCAAAAGCAGGCAAACCATTTGAATGGATGTCAATCCGACTTTACTTTTCTTAAAAGTGCCAGCGCAAAATGCTATAAGTACCACATTCCCTTATACTGGAGATCCTCCATACAGCCATGGAACAGGAACAGGATACACCATGGACACAGTCAACAGAACACATCAATATTCAGAAAAGGGGAAATGGACAACGAACACAGAGACTGGAGCACCCCAACTCAATCCGATTGATGGACCACTACCTGAGGATAATGAGCCGAGTGGGTATGCACAAACAGATTGTGTATTGGAAGCAATGGCTTTCCTTGAAGAATCCCACCCAGGGATCTTTGAAAACTCGTGTCTTGAAACGATGGAAGTTGTTCAGCAAACAAGAGTGGATAAGCTGACCCAAGGTCGCCAAACCTATGACTGGACATTGAAAAGAAACCAGCCGGCTGCAACCGCTTTGGCCAACACTATAGAGGTCTTCAGATCGAATGGTCTAACAGCCAATGAATCGGGAAGGCTAATAGATTTCCTCAAAGACGTGATGGAATCAATGGATAAGGGAGAAATGGAAATAATAACACATTTCCAGAGAAAGAGAAGAGTGAGGGACAACATGACCAAGAAAATGGTCACACAAAGAACAATAGGGAAGAAAAAACAAAGGCTGAACAAAAGGAGCTACCTAATAAGAGCACTGACACTGAACACAATGACAAAAGACGCAGAAAGAGGCAAATTGAAGAGGCGGGCAATTGCAACACCCGGGATGCAAATCAGAGGATTCGTGTACTTTGTCGAAACACTAGCGAGGAGTATCTGTGAGAAACTTGAGCAATCTGGACTCCCCGTCGGAGGGAATGAAAAGAAGGCTAAATTGGCAAATGTCGTGAGGAAGATGATGACTAACTCACAAGATACAGAGCTCTCTTTTACAATTACTGGAGACAACACCAAATGGAATGAGAATCAGAACCCTCGGATGTTTCTAGCAATGATAACATACATCACAAGGAACCAACCTGAATGGTTTAGAAATGTCTTAAGCATTGCTCCTATAATGTTCTCAAACAAGATGGCAAGATTAGGGAAAGGATACATGTTCGAAAGTAAGAGCATGAAGCTACGGACACAAATACCAGCAGAAATGCTTGCAAGCATTGACTTGAAATACTTCAACGAATCAACGAGAAAGAAAATCGAGAAAATAAGACCTCTACTAATAGATGGCACAGCCTCATTGAGTCCTGGAATGATGATGGGCATGTTCAATATGCTGAGTACAGTCTTAGGAGTTTCAATCCTGAATCTTGGGCAGAAGAGGTACACCAAAACCACATACTGGTGGGACGGACTCCAATCCTCTGATGATTTCGCTCTCATAGTGAATGCACCAAATCATGAGGGAATAGAAGCAGGGGTGGATAGGTTCTATAGGACTTGCAAACTAGTTGGAATCAATATGACCAAGAAGAAGTCTTACATAAATCGGACAGGAACATGTGAATTCACAAGCTTCTTCTACCGCTATGGGTTCGTAGCCAACTTCAGTATGGAGCTGCCCAGCTTTGGAGTGTCTGGGATTAATGAATCGGCTGACATGAGCATTGGTGTTACAGTGATAAAGAACAATATGATGGACAACGACCTTGGACCAGCAACAGCTCAGATGGCTCTTCAGCTATTCATTAAGGACTACAGATACCCATACCGATGCCACAGGGGGGATACACAAATCCAAACGAGGAGATCATTCGAGCTGAAGAAGCTGTGGGAGCAGACCCGCTCAAAGGCAGGACTGTTGGTTTCAGATGGAGGACCAAACCCATACAATATCCGGAATCTCCACATTCCGGAGGCTGGCTTGAAGTGGGAATTGATGGATGAAGACTACCAGGGCAGACTGTGTAATCCTCTGAACCCGTTTGTTAGTCATAAGGAAATTGAGTCTGTCAACAATGCTGTGGTAATGCCAGCTCATGGCCCAGCCAAGAGCATGGAATATGATGCAGTTGCGACTACACATTCATGGATTCCCAAGAGGAATCGTTCCATTCTCAACACCAGCCAAAGGGGGATTCTTGAGGATGAACAGATGTATCAGAAGTGCTGCAATCTATTCGAGAAATTCTTCCCTAGCAGTTCATATCGGAGGCCAGTTGGAATTTCCAGCATGGTGGAGGCCATGGTGTCTAGGGCCCGAATTGATGCACGAATTGACTTCGAGTCTGGAAGGATTAAGAAAGAAGAGTTTGCTGAGATCATGAAGATCTGTTCCACCATTGAAGAGCTCGGACGGCAAAAATAGTGAATTTAGCTTGTCCTTCATGAAAAAATGCCTTGTTTCTACT</t>
   </si>
   <si>
     <t xml:space="preserve">PA</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGGAAGACTTTGTGCGACAATGCTTCAATCCGATGATTGTCGAGCTTGCGGAAAAGGCAATGAAAGAATATGGGGAGGATCCGAAAATTGAAACAAATAAGTTTGCTGCAATATGCACACACTTAGAAGTCTGTTTCATGTATTCGGATTTCCACTTCATTGATGAGCGAGGAGAATCAATAATTGTAGAATCTGGCGACCCGAATGTATTGCTGAAACACCGATTTGAAATAATCGAAGGGAGAGACCGAACAATGGCCTGGACAGTGGTTAATAGTATTTGCAACACCACAGGAGTCGACAAACCCAAATTTCTTCCAGATTTGTATGACTACAAAGAAAACCGGTTCATCGAAATCGGAGTGACACGAAGGGAAGTTCACATATACTATCTGGAAAAAGCCAACAAGATAAAATCAGAGAAAACACACATTCACATATTCTCATTCACCGGGGAGGAAATGGCCACTAAAGCAGACTATACCCTTGATGAAGAGAGCAGAGCAAGGATCAAAACCAGGCTGTTCACTATAAGGCAAGAAATGGCCGGTAGGGGTTTATGGGATTCCTTTCGTCAGTCCGAGAGAGGCGAAGAGACAATTGAAGAAAGATTTGAAATCACAGGAACCATGCGCAGGCTTGCCGACCAAAGTCTCCCACCGAACTTCTCCAGCCTTGAAAACTTTAGAGCCTATGTGGATGGATTCGAACCGAACGGCTGCATTGAGGGCAAGCTTTCTCAAATGTCAAAGGAAGTAAACGCCAGAATTGAGCCATTCTTGAAGACAACCCCACGGCCTCTTAGACTACCTGATGGCCCTCCTTGTTCTCAGCGGTCGAAATTCTTGCTGATGGATGCCCTTAAATTAAGCATAGAAGACCCAAGTCATGAGGGGGAAGGTATACCACTATATGATGCAATCAAATGCATGAAGACATTTTTTGGCTGGAAAGAGCCCAATATTGTAAAACCACATGAAAAGGGCATAAACCCCAATTACCTCCTAGCTTGGAAGCAGGTGCTGTCAGAGCTCCAAGACCTTGAAAGTGAGGATAAAATCCCAAAAACAAAGAACATGAAGAAAACAAGCCAGTTGAAGTGGGCACTTGGTGAGAATATGGCACCAGAGAAAGTAGATTTTGAGGACTGCAAAGATGTTAGCGATCTAAGACAGTATGACAGTGATGAACCAGAGTCTAGATCGTTGGCAAGCTGGATCCAGAGTGAATTCAACAAAGCATGCGAATTAACAGATTCAAGTTGGATTGAACTTGATGAAATAGGGGAAGATGTTGCTCCAATTGAGCACATTGCAAGCACGAGAAGGAACTATTTCACAGCGGAAGTATCCCATTGCAGGGCTACTGAGTATATAATGAAGGGAGTGTATATAAATACAGCCCTGTTGAATGCATCCTGTGCAGCCATGGATGACTTCCAACTGATCCCGATGATAAGCAAGTGCAGAACCAAAGAAGGAAGACGGAAAACAAATCTGTATGGATTCATTATAAAAGGAAGATCTCATTTGAGAAATGATACAGATGTAGTAAACTTTGTAAGCATGGAATTCTCTCTCACTGACCCGAGGCTGGAGCCACACAAATGGGAAAAGTACTGTGTTCTCGAGATAGGAGACATGCTCCTACGGACTGCAATAGGCCAAGTGTCAAGGCCCATGTTCCTTTATGTGAGAACCAATGGTACTTCCAAGATCAAAATGAAATGGGGTATGGAGATGAGAAGATGCCTCCTTCAATCTCTTCAACAAATTGAGAGCATGATTGAGGCTGAATCTTCTGTCAAAGAAAAGGACATGACCAAGGAGTTCTTTGAGAACAAATCTGAAACATGGCCAATTGGAGAGTCGCCCAAAGGGGTAGAGGAAGGATCCATTGGAAAGGTGTGCAGGACATTACTAGCAAAATCTGTGTTTAATAGTCTATATGCATCTCCACAACTCGAGGGGTTTTCAGCCGAGTCAAGAAAATTGCTTCTCATTGTTCAGGCACTTAGGGACAACCTGGAACCTGGGACCTTCGATCTTGGGGGGCTATATGAAGCAATTGAGGAGTGCCTGATTAATGATCCCTGGGTTTTGCTTAATGCGTCTTGGTTCAACTCCTTCCTCACACATGCACTGAAATAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDFVRQCFNPMIVELAEKAMKEYGEDPKIETNKFAAICTHLEVCFMYSDFHFIDERGESIIVESGDPNVLLKHRFEIIEGRDRTMAWTVVNSICNTTGVDKPKFLPDLYDYKENRFIEIGVTRREVHIYYLEKANKIKSEKTHIHIFSFTGEEMATKADYTLDEESRARIKTRLFTIRQEMAGRGLWDSFRQSERGEETIEERFEITGTMRRLADQSLPPNFSSLENFRAYVDGFEPNGCIEGKLSQMSKEVNARIEPFLKTTPRPLRLPDGPPCSQRSKFLLMDALKLSIEDPSHEGEGIPLYDAIKCMKTFFGWKEPNIVKPHEKGINPNYLLAWKQVLSELQDLESEDKIPKTKNMKKTSQLKWALGENMAPEKVDFEDCKDVSDLRQYDSDEPESRSLASWIQSEFNKACELTDSSWIELDEIGEDVAPIEHIASTRRNYFTAEVSHCRATEYIMKGVYINTALLNASCAAMDDFQLIPMISKCRTKEGRRKTNLYGFIIKGRSHLRNDTDVVNFVSMEFSLTDPRLEPHKWEKYCVLEIGDMLLRTAIGQVSRPMFLYVRTNGTSKIKMKWGMEMRRCLLQSLQQIESMIEAESSVKEKDMTKEFFENKSETWPIGESPKGVEEGSIGKVCRTLLAKSVFNSLYASPQLEGFSAESRKLLLIVQALRDNLEPGTFDLGGLYEAIEECLINDPWVLLNASWFNSFLTHALK*</t>
+    <t xml:space="preserve">AGCAAAAGCAGGTACTGATCCAAAATGGAAGACTTTGTGCGACAATGCTTCAATCCAATGATTGTCGAGCTTGCGGAAAAGGCAATGAAAGAATATGGGGAAGATCCGAAAATCGAAACGAACAAATTTGCCGCAATATGCACGCACTTAGAAGTCTGTTTCATGTATTCAGATTTCCACTTTATTGATGAACGGGGCGAATCAACAATTATAGAATCTGGCGATCCCAATGCATTATTGAAACACCGGTTTGAAATAATCGAAGGGAGGGACCGAACAATGGCCTGGACAGTGGTGAATAGTATCTGCAACACCACAGGAGTTGAGAAGCCTAAATTTCTCCCAGATTTGTATGACTACAAGGAGAACCGATTTATTGAAATTGGAGTGACACGGAGGGAAGTTCACACATACTATCTAGAAAAAGCCAACAAGATAAAATCTGAGAAGACACACATTCACATATTCTCATTCACTGGAGAGGAAATGGCCACCAAAGCGGACTACACCCTTGATGAAGAAAGCAGGGCCCGAATCAAAACCAGGCTGTTCACTATAAGGCAGGAAATGGCCAGTAGGGGTTTATGGGATTCCTTTCGTCAGTCCGAGAGAGGCGAAGAGACAGTTGAAGAAAGATTTGAAATCACAGGGACTATGTGCAGGCTTGCCGACCAAAGTCTCCCACCTAATTTCTCCAGCCTTGAAAAATTTAGAGCCTATGTGGATGGATTCGAACCGAACGGCTGCATTGAGGGCAAGCTTTCTCAAATGTCGAAAGAAGTAAACGCCAGAATTGAGCCATTTCTGAAGACAACACCACGCCCTCTTAGATTACCTGATGGGCCTCCCTGCTCTCAGCGGTCGAAGTTTTTGCTGATGGATGCCCTTAAATTAAGCATCGAAGACCCGAGTCATGAGGGGGAGGGGATACCGCTATATGATGCAATCAAATGCATGAAAACATTTTTCGGCTGGAAAGAGCCCAACATTGTAAAACCACATGAAAAAGGCATAAACCCCAATTACCTCCTGGCTTGGAAGCAGGTGCTGGCAGAGCTCCAAGATATTGAAAACGAGGAGAAAATTCCAAAGACAAAGAACATGAGGAAAACAAGCCAATTGAAGTGGGCACTTGGTGAGAATATGGCACCAGAGAAAGTAGACTTTGAGGATTGCAAAGATGTTAGCGATCTAAGGCAGTATGACAGTGATGAACCAAAGCCTAGATCACTAGCAAGCTGGATCCAGAGTGAATTCAACAAGGCATGCGAATTGACAGATTCAAGTTGGATTGAACTTGATGAAATAGGGGAAGACGTTGCTCCAATTGAGCACATTGCAAGTATGAGAAGGAACTATTTCACAGCGGAAGTATCCCATTGCAGGGCTACTGAATACATAATGAAGGGAGTGTACATAAACACAGCTTTGTTGAATGCATCCTGTGCAGCCATGGATGACTTCCAACTGATCCCAATGATAAGCAAATGCAGAACCAAAGAAGGAAGACGGAAAACTAACCTGTATGGATTCCTTATAAAAGGAAGATCCCATTTGAGAAATGACACCGATGTGGTAAACTTTGTGAGTATGGAATTCTCTCTTACTGATCCGAGGCTGGAGCCACACAGATGGGAAAAGTACTGCGTTCTTCGGATAGGAGACATGCTCTTACGGACTGAAATAGGCCAAGTGTCAAGGCCCATGTTTCTTTATGTGAGAACCAATGGAACCTCCAAGATCAAGATGAAATGGGGCATGGAAATGAGGCGATGCCCTTTTCAATCCCTTCAACAGATTGAGAGCATGATTGAGGCCGAGTCTTCTGTCAAAGAAAAAGACATGACTAAAGAATTCTTTGAAAACAAATCAGAAACATGGCCAATTGGAGAATCACCCAAGGGAGTGGAGGAAGGCTCCATCGGGAAGGTGTGCAGAACCTTACTGGCTAAATCTGTTTTCAACAGTCTATATGCATCTCCACAACTCGAGGGGTTTTCAGCTGAATCAAGAAAATTGCTTCTCATTGTTCAGGCACTTAGGGACAACCTGGAACCTGGAACCTTCGATCTTGGGGGGCTATATGAAGCAATTGAGGAGTGCCTGATTAATGATCCCTGGGTTTTGCTTAATGCATCTTGGTTCAACTCCTTCCTCACACATGCACTAAGATAGTTGTGGCAATGCTACTATTTGCTATCCATACTGTCCAAAAAAGTACCTTGTTTCTACT</t>
   </si>
   <si>
     <t xml:space="preserve">HA</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGGAGAACATAGTACTTCTTCTTGCAATAGTTAGCCTTGTTAAAAGTGATCAGATTTGCATTGGTTACCATGCAAATAATTCGACAGAGCAGGTTGACACGATAATGGAAAAGAACGTCACTGTTACACATGCCCAAGACATACTGGAAAAAACACACAACGGGAAGCTCTGTGATTTAAATGGGGTGAAGCCTCTGATTTTAAAGGATTGTAGTGTAGCTGGATGGCTCCTCGGAAACCCAATGTGCGACGAATTCATCGAAGTGCCGGAATGGTCCTACATAGTGGAGCGGGCTAATCCAGCTAATGGCCTCTGTTACCCAGGGAGCCTCAATGACTATGAAGAACTGAAACACCTGTTGAGCAGAATAAATCATTTTGAGAAGATTCTTATCATCCCCAAGAGTTCCTGGCCAAATCATGAAACATCACTAGGGGTGAGCGCAGCTTGTCCATACCAGGGAGCGCCCTCCTTTTTCAGAAATGTGGTGTGGCTTATCAAAAAGAACGATGCATACCCAACAATAAAGATAAGCTACAATAATACAAATCGGGAAGATCTCTTGATACTGTGGGGGATTCATCATTCCAACAATGCAGAAGAGCAGACAAATCTCTATAAAAACCCAACCACCTACATTTCAGTTGGAACATCAACTTTAAACCAGAGGTTGGTACCAAAAATAGCTACTAGATCCCAAGTAAACGGGCAACGTGGAAGAATGGACTTCTTCTGGACAATTTTAAAACCAGATGATGCAATCCATTTCGAGAGTAATGGAAATTTCATTGCTCCAGAATATGCATATAAAATTGTCAAGAAAGGGGACTCAACAATTATGAAAAGTGGAGTGGAATATGGCCATTGCAACACCAAATGTCAAACCCCAGTAGGAGCGATAAATTCTAGTATGCCATTCCACAACATACATCCTCTCACCATTGGGGAATGCCCCAAATACGTGAAGTCAAACAAGTTGGTCCTTGCGACTGGGCTCAGAAATAGTCCTCTAAGAGAAAAGAGAAGAAAAAGAGGCCTGTTTGGGGCAATAGCAGGGTTTATAGAGGGAGGATGGCAGGGAATGGTTGATGGTTGGTATGGGTACCATCATAGCAATGAGCAGGGGAGTGGGTACGCTGCGGACAAAGAATCCACCCAAAAGGCAATAGATGGAGTTACCAATAAGGTCAACTCAATCATTGACAAAATGAACACTCAATTTGAGGCAGTTGGAAGGGAGTTTAATAACTTAGAAAGGAGGATAGAGAATTTGAACAAGAAAATGGAAGACGGATTCCTAGATGTCTGGACCTATAATGCTGAACTTCTAGTTCTCATGGAAAACGAGAGGACTTTAGATTTCCATGATTCAAATGTCAAGAACCTTTACGACAAAGTCAGACTACAGCTTAGGGATAATGCAAAGGAGCTGGGTAATGGCTGTTTCGAATTCTATCACAAGTGCGATAATGAATGTATGGAAAGTGTGAGAAATGGGACGTATGACTACCCTCAGTATTCAGAAGAAGCAAGATTAAAAAGAGAAGAAATAAGCGGAGTGAAATTAGAATCAATAGGAACTTACCAGATACTGTCAATTTATTCAACAGCGGCGAGTTCCCTAGCACTGGCAATCATGATAGCTGGTCTATCTTTATGGATGTGCTCCAATGGGTCGTTACAGTGCAGAATTTGCATTTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENIVLLLAIVSLVKSDQICIGYHANNSTEQVDTIMEKNVTVTHAQDILEKTHNGKLCDLNGVKPLILKDCSVAGWLLGNPMCDEFIEVPEWSYIVERANPANGLCYPGSLNDYEELKHLLSRINHFEKILIIPKSSWPNHETSLGVSAACPYQGAPSFFRNVVWLIKKNDAYPTIKISYNNTNREDLLILWGIHHSNNAEEQTNLYKNPTTYISVGTSTLNQRLVPKIATRSQVNGQRGRMDFFWTILKPDDAIHFESNGNFIAPEYAYKIVKKGDSTIMKSGVEYGHCNTKCQTPVGAINSSMPFHNIHPLTIGECPKYVKSNKLVLATGLRNSPLREKRRKRGLFGAIAGFIEGGWQGMVDGWYGYHHSNEQGSGYAADKESTQKAIDGVTNKVNSIIDKMNTQFEAVGREFNNLERRIENLNKKMEDGFLDVWTYNAELLVLMENERTLDFHDSNVKNLYDKVRLQLRDNAKELGNGCFEFYHKCDNECMESVRNGTYDYPQYSEEARLKREEISGVKLESIGTYQILSIYSTAASSLALAIMIAGLSLWMCSNGSLQCRICI*</t>
+    <t xml:space="preserve">GCAGGGGTATAATCTGTCAAAATGGAGAAAATAGTGCTTCTTCTTGCAATAGTCAGTCTTGTCAAAAGTGATCAGATTTGCATTGGTTACCATGCAAACAACTCGACAGAGCAGGTTGACACAATAATGGAAAAGAACGTTACTGTTACACATGCCCAAGACATACTGGAAAAGACACACAATGGGAAGCTCTGCGATCTAAATGGAGTGAAGCCTCTCATTTTGAGAGATTGTAGTGTAGCTGGATGGCTCCTCGGAAACCCTATGTGTGACGAATTCATCAATGTGCCGGAATGGTCTTACATAGTGGAGAAGGCCAGTCCAGCCAATGACCTCTGTTACCCAGGGGATTTCAACGACTATGAAGAACTGAAACACCTATTGAGCAGAACAAACCATTTTGAGAAAATTCAGATCATCCCCAAAAGTTCTTGGTCCAATCATGATGCCTCATCAGGGGTGAGCTCAGCATGTCCATACCATGGGAGGTCCTCCTTTTTCAGAAATGTGGTATGGCTTATCAAAAAGAACAGTGCATACCCAACAATAAAGAGGAGCTACAATAATACCAACCAAGAAGATCTTTTAGTACTGTGGGGGATTCACCATCCTAATGATGCGGCAGAGCAGACAAAGCTCTATCAAAACCCAACCACTTACATTTCCGTTGGAACATCAACACTGAACCAGAGATTGGTTCCAGAAATAGCTACTAGACCCAAAGTAAACGGGCAAAGTGGAAGAATGGAGTTCTTCTGGACAATTTTAAAGCCGAATGATGCCATCAATTTCGAGAGTAATGGAAATTTCATTGCTCCAGAATATGCATACAAAATTGTCAAGAAAGGGGACTCAGCAATTATGAAAAGTGAATTGGAATATGGTAACTGCAACACCAAGTGTCAAACTCCAATGGGGGCGATAAACTCTAGTATGCCATTCCACAACATACACCCCCTCACCATCGGGGAATGCCCCAAATATGTGAAATCAAACAGATTAGTCCTTGCGACTGGACTCAGAAATACCCCTCAGAGAGAGAGAAGAAGAAAAAAGAGAGGACTATTTGGAGCTATAGCAGGTTTTATAGAGGGAGGATGGCAGGGAATGGTAGATGGTTGGTATGGGTACCACCATAGCAATGAGCAGGGGAGTGGATACGCTGCAGACAAAGAATCCACTCAAAAGGCAATAGATGGAGTCACCAATAAGGTCAACTCGATCATTGACAAAATGAACACTCAGTTTGAGGCCGTTGGAAGGGAATTTAATAACTTGGAAAGGAGGATAGAGAATTTAAACAAGCAGATGGAAGACGGATTCCTAGATGTCTGGACTTATAATGCTGAACTTCTGGTTCTCATGGAAAATGAGAGAACTCTAGACTTTCATGACTCAAATGTCAAGAACCTTTATGACAAGGTCCGACTACAGCTTAGGGATAATGCAAAGGAGCTGGGTAATGGTTGTTTCGAGTTCTATCACAAATGTGATAATGAATGTATGGAAAGTGTAAAAAACGGAACGTATGACTACCCGCAGTATTCAGAAGAAGCAAGACTAAACAGAGAGGAAATAAGTGGAGTAAAATTGGAATCAATGGGAACTTACCAAATACTGTCAATTTATTCAACAGTGGCGAGTTCCCTAGCACTGGCAATCATGGTAGCTGGTCTATCTTTATGGATGTGCTCCAATGGATCGTTACAATGCAGAATTTGCATTTAAATTTGTGAGTTCAGATTGTAGTTAAAAACACC</t>
   </si>
   <si>
     <t xml:space="preserve">NP</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGGCGTCTCAAGGCACCAAACGATCGTATGAGCAGATGGAAACTGGTGGAGAACGCCAGAATGCCACTGAGATTCGGGCATCTGTCGGAAGGATGATTGGAGGAATCGGAAGATTCTACATACAGATGTGCACTGAACTCAAACTAAGTGACAATGAGGGAAGGCTGATACAAAACAGTATCACAATAGAGAGGATGGTCCTGTCTGCATTTGATGAGAGGAGGAACAGATACCTGGAGGAGCATCCCAGCGCTGGGAGAGATCCCAAGAAAACTGGTGGACCGATTTACAGAAGAAGAGAAGGGAAATGGGTGAGAGAATTGGTCCTATATGATAAGGAAGAGATAAGACGAATCTGGCGACAGGCAAACAATGGAGAAGATTCGACTGCTGGCCTCACCCATCTGATGATCTGGCATTCTAATTTGAATGATGCCACATATCAGAGGACCAGAGCCCTAGTGCGCACCGGGATGGACCCCAGGATGTGCTCCCTCATGCAGGGATCGACACTCCCAAGAAGGTCTGGAGCGGCTGGTGCAGCTGTAAAAGGGGTTGGGACAATGGTGATGGAGATCATCAGAATGATCAAAAGAGGGGTTAATGACCGTAACTTCTGGAGAGGTGAAAATGGGAGAAGAACAAGAATTGCTTATGAAAGGATGTGCAACATCCTCAAAGGGAAATTCCAAACAGCAGCACAACGAGCTATGATGGACCAGGTCAGAGAAAGCCGTAACCCTGGGAATGCTGAGATTGAGGACCTCATATTTTTGGCCAGGTCTGCCCTTATTCTAAGGGGAGCAGTGGCTCATAAGTCATGCCTGCCTGCCTGCGTGTATGGGCTTGCTGTAGCAAGTGGATATGACTTCGAGAGGGAAGGATATTCCCTTGTCGGGATAGACCCTTTCCGTCTGCTCCAAAACAGCCAAGTGTTCAGTCTAATCCGACCCAATGAAAATCCAGCACACAAGAGCCAATTGGTATGGATGGCGTGTCATTCTGCCGCATTTGAGGATTTGAGAGTGTCAAGCTTTATCAGGGGAACAAGAGTGTTGCCAAGAGGGCAACTATCCACAAGAGGTGTTCAAATTGCATCCAATGAGAACATGGAAACTATGAATTCCAGCACACTTGAACTAAGGAGCAAATACTGGGCAATAAGGACTAGAAGCGGAGGAAACACCAATCAACAAAGAGCATCAGCAGGACAAATCAGTGTACAACCTACCTTTTCAGTACAAAGGAACCTTCCTTTTGAAAGAGCGACAATCATGGCTGCATTTACAGGGAATGCAGAAGGAAGAACATCAGATATGAGGACTGAGATCATACGGATGATGGAAAGTGCAAGACCAGAAGATGTGTCTTTCCAGGGGCGGGGAGTCTTCGAGCTCTCAGACGAAAAGGCCACGAACCCGATCGTGCCTTCCTTTGACATGAGTAAAGAAGGATCTTATTTCTTCGGAGACAATGCTGAGGAGTTTGACAGTTGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASQGTKRSYEQMETGGERQNATEIRASVGRMIGGIGRFYIQMCTELKLSDNEGRLIQNSITIERMVLSAFDERRNRYLEEHPSAGRDPKKTGGPIYRRREGKWVRELVLYDKEEIRRIWRQANNGEDSTAGLTHLMIWHSNLNDATYQRTRALVRTGMDPRMCSLMQGSTLPRRSGAAGAAVKGVGTMVMEIIRMIKRGVNDRNFWRGENGRRTRIAYERMCNILKGKFQTAAQRAMMDQVRESRNPGNAEIEDLIFLARSALILRGAVAHKSCLPACVYGLAVASGYDFEREGYSLVGIDPFRLLQNSQVFSLIRPNENPAHKSQLVWMACHSAAFEDLRVSSFIRGTRVLPRGQLSTRGVQIASNENMETMNSSTLELRSKYWAIRTRSGGNTNQQRASAGQISVQPTFSVQRNLPFERATIMAAFTGNAEGRTSDMRTEIIRMMESARPEDVSFQGRGVFELSDEKATNPIVPSFDMSKEGSYFFGDNAEEFDS*</t>
+    <t xml:space="preserve">AGCAAAAGCAGGGTAGATAATCACTCACTGAGTGACATCAACATCATGGCGTCTCAGGGCACCAAACGATCTTATGAACAGATGGAAACTGGTGGAGAACGCCAGAATGCTACTGAGATCAGAGCATCTGTTGGAAGAATGGTTGGTGGAATTGGGAGGTTTTATATACAGATGTGCACTGAACTCAAACTCAGCGACTATGAAGGAAGGCTGATTCAGAACAGCATAACAATAGAGAGAATGGTTCTCTCTGCATTTGATGAAAGGAGGAACAAATACCTGGAAGAACATCCCAGTGCGGGGAAGGACCCAAAGAAAACTGGAGGTCCAATCTACCGAAGAAGAGACGGAAAATGGGTGAGAGAGCTGATTCTGTATGACAAAGAGGAGATCAGGAGAATTTGGCGTCAAGCGAACAATGGAGAAGATGCAACTGCTGGTCTCACTCACATGATGATCTGGCATTCCAATCTAAATGATGCCACATACCAGAGAACAAGAGCTCTCGTGCGTACTGGGATGGACCCTAGAATGTGCTCTCTGATGCAAGGATCAACTCTCCCGAGGAGATCTGGAGCTGCTGGTGCGGCAGTAAAGGGAGTCGGAACGATGGTGATGGAACTAATTCGGATGATAAAGCGAGGGATTAACGATCGGAATTTCTGGAGAGGTGAAAATGGGCGAAGAACAAGAATTGCATATGAGAGAATGTGCAACATCCTCAAAGGGAAATTCCAAACAGCAGCACAAAGAGCAATGATGGATCAGGTACGGGAAAGCAGAAATCCTGGGAATGCTGAGATTGAAGATCTCATATTTCTGGCACGGTCTGCACTCATCCTGAGAGGATCAGTGGCCCACAAGTCCTGCTTGCCTGCTTGTGTGTACGGGCTTGCCGTGGCCAGTGGATATGACTTTGAGAGAGAAGGGTACTCTCTGGTCGGGATTGATCCTTTCCGTCTGCTGCAAAACAGCCAGGTCTTTAGTCTAATTAGACCAAATGAGAATCCAGCACATAAAAGTCAATTGGTGTGGATGGCATGCCATTCTGCAGCATTTGAAGATCTGAGAGTCTCAAGCTTCATCAGAGGGACAAGAGTGGCCCCAAGGGGACAACTATCTACTAGAGGAGTTCAAATTGCTTCAAATGAGAACATGGAAACAATGGACTCCAGCACTCTTGAACTGAGAAGCAGATATTGGGCTATAAGGACCAGGAGTGGAGGAAACACCAACCAGCAGAGAGCATCTGCAGGACAAATCAGTGTGCAGCCTACTTTCTCGGTACAGAGAAATCTTCCCTTCGAAAGAGCGACCATTATGGCGGCATTCACAGGGAATACAGAGGGCAGAACATCTGACATGAGGACTGAAATCATAAGGATGATGGAAAGCTCCAGACCAGAAGATGTGTCTTTCCAGGGGCGGGGAGTCTTCGAGCTCTCGGACGAAAAGGCAACGAACCCGATCGTGCCTTCCTTTGACATGAGTAATGAAGGATCTTATTTCTTCGGAGACAATGCAGAGGAATATGACAATTGAAGAAAAATACCCTTGTTTCTACT</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGAGTCCAAATCAAAGGATAATAATCACTGGATCAATCTGTATGGTAATTGGGATAGTCAGCTTGATGCTGCAAATTGGGAACATAATCTCAATATGGGTTAGCCATTCAATCCAAACAGGGAATCAATACCAGCCTGAACCATGCAATCAAAGCATCATTACCTATGAGAACAACACCTGGGTAAATCAGACGTATGTCAACATCAGCAATACCAATTTTCTTGCTGAGCAGGCTGTTACTTCGGTAACATTAGCGGGTAATTCATCTCTTTGCCCTATTAGTGGGTGGGCTATATACAGTAAGGACAACGGTATAAGAATTGGGTCCAAGGGGGATGTGTTTGTTATAAGAGAACCGTTCATCTCATGCTCCCACTTGGAATGCAGAACCTTTTTTCTGACCCAGGGAGCTCTGCTGAATGACAAACATTCTAATGGGACTGTTAAGGATAGAAGCCCCTATAGAACTTTGATGAGTTGTCCCGTGGGTGAGGCTCCTTCCCCGTACAATTCAAGATTTGAGTCTGTTGCTTGGTCAGCAAGTGCTTGTCATGATGGCATCAGTTGGCTGACAATCGGTATTTCTGGTCCAGACAATGGAGCTGTGGCTGTATTGAAGTACAATGGCATAATAACGGATACTATCAAGAGTTGGAGAAACAACATTTTGAGAACTCAAGAATCTGAATGTGCGTGCGTAAATGGCTCTTGCTTCACTGTAATGACAGATGGACCAAGCAATGGGCAGGCCTCATATAAAATCTTCAAGATAGAGAAAGGAAAAGTAGTCAAATCAGTTGAATTGAATGCCCCTAATTACCACTACGAGGAATGCTCCTGTTATCCTGATGCGGGTGAGATTATGTGTGTTTGCAGGGACAATTGGCATGGCTCAAACCGGCCGTGGATATCTTTTAATCAGAATCTGGAGTATCAAATAGGATATATATGCAGTGGGGTTTTCGGAGACAACCCCCGCCCCAATGACGGAACAGGCAGTTGCAGTCCAATGTCCTCTAACGGGGCATATGGGGTAAAAGGGTTTTCATTTAAGTACGGTAATGGGGTTTGGATCGGAAGAACAAAAAGCACTAGTTCCAGGATCGGCTTTGAGATGATTTGGGATCCGAATGGGTGGACTGAGACGGACAGTAGTTTCTCAGTGAAACAAGACATCGTAGCAATAACTGACTGGTCAGGATATAGTGGGACTTTTGTCCAGCACCCAGAACTGACAGGATTAGATTGCATGAGGCCCTGTTTCTGGGTTGAGCTGATTAGAGGGAGGCCCAAAGAGAACACAATTTGGACTAGCGGGAGCAGCATATCCTTTTGTGGTGTAAATAGTGACACTGTGGGTTGGTCGTGGCCAGACGGTGCTGAATTGCCATTCACCATTGACAAGTAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSPNQRIIITGSICMVIGIVSLMLQIGNIISIWVSHSIQTGNQYQPEPCNQSIITYENNTWVNQTYVNISNTNFLAEQAVTSVTLAGNSSLCPISGWAIYSKDNGIRIGSKGDVFVIREPFISCSHLECRTFFLTQGALLNDKHSNGTVKDRSPYRTLMSCPVGEAPSPYNSRFESVAWSASACHDGISWLTIGISGPDNGAVAVLKYNGIITDTIKSWRNNILRTQESECACVNGSCFTVMTDGPSNGQASYKIFKIEKGKVVKSVELNAPNYHYEECSCYPDAGEIMCVCRDNWHGSNRPWISFNQNLEYQIGYICSGVFGDNPRPNDGTGSCSPMSSNGAYGVKGFSFKYGNGVWIGRTKSTSSRIGFEMIWDPNGWTETDSSFSVKQDIVAITDWSGYSGTFVQHPELTGLDCMRPCFWVELIRGRPKENTIWTSGSSISFCGVNSDTVGWSWPDGAELPFTIDK*</t>
+    <t xml:space="preserve">AGCAAAAGCAGGAGATTAAAATGAATCCAAATCAGAAGATAATAACCATTGGATCAATCTGTATGGTAGTTGGGATAATTAGCTTGATGTTACAAATTGGGAACATAATCTCAATATGGGTCAGTCATTCAATTCAGACAGGGAATCAACACCAAGCTGAACCATGCAATCAAAGCATTATTACTTATGAAAACAACACCTGGGTAAATCAAACATATGTCAACATCAGCAATACCAATTTTCTTACTGAAAAAGCTGTGGCTTCAGTAACATTAGCGGGCAATTCATCTCTTTGCCCCATTAGCGGATGGGCTGTACACAGTAAGGACAACGGTATAAGAATCGGTTCCAAGGGGGATGTGTTTGTTATAAGAGAGCCGTTCATCTCATGCTCCCACTTGGAATGCAGAACTTTCTTTTTGACTCAGGGAGCCTTGCTGAATGACAAGCACTCCAATGGGACCGTCAAAGACAGAAGCCCTCACAGAACATTGATGAGTTGTCCTGTGGGTGAGGCTCCCTCCCCATATAACTCAAGGTTTGAGTCTGTTGCTTGGTCGGCAAGTGCTTGCCATGATGGCACCAGTTGGTTGACAATTGGAATTTCTGGCCCAGACAATGGGGCTGTGGCTGTATTGAAATACAACGGCATAATAACAGACACTATCAAGAGTTGGAGGAACAACATACTGAGAACTCAAGAGTCTGAATGTGCATGTGTAAATGGCTCTTGCTTTACTGTAATGACTGACGGACCAAGTAATGGGCAGGCCTCATATAAGATCTTCAAAATGGAAAAAGGGAAAGTAGTTAAATCAGTCGAATTGAATGCCCCTAATTATCACTATGAGGAGTGCTCCTGTTATCCTGATGCTGGCGAAATCACATGTGTGTGCAGGGATAATTGGCATGGCTCAAATCGGCCATGGGTATCTTTCAATCAAAATTTGGAGTATCAAATAGGATATATATGCAGTGGAGTTTTCGGAGACAATCCACGCCCCAATGATGGAACAGGCAGTTGTGGTCCGGTGTCCCCTAACGGGGCATATGGAGTAAAAGGGTTTTCATTTAAATACGGCAATGGTGTTTGGATCGGGAGAACCAAAAGCACTAATTCCAGGAGCGGCTTTGAAATGATTTGGGATCCAAATGGGTGGACTGGAACGGACAGTAGCTTCTCGGTGAAACAAGATATCGTAGCAATAACTGATTGGTCAGGATATAGCGGGAGTTTTGTCCAGCATCCAGAACTGACAGGATTAGATTGCATAAGACCTTGTTTCTGGGTTGAGCTAATCAGAGGGCGGCCCAAAGAGAGCACAATTTGGACTAGTGGGAGCAGCATATCTTTTTGTGGTGTAAATAGTGACACTGTGGGTTGGTCTTGGCCAGACGATGCCGAGTTGCCATTCACCATTGACAAGTAGTTTGTTCAAAAAACTCCTTGTTTCTACT</t>
   </si>
   <si>
     <t xml:space="preserve">MP</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGAGTCTTCTAACCGAGGTCGAAACGTACGTTCTCTCTATCGTCCCGTCGGGCCCCCTCAAAGCCGAGATCGCGCAGAGACTTGAAGATGTCTTTGCAGGGAAGAACACCGATCTTGAGGCTCTCATGGAATGGCTAAAGACAAGACCAATCCTGTCACCTATGACTAAGGGGATTTTGGGATTTGTGTTCACGCTCACCGTGCCCAGTGAGCGAGGACTGCAGCGTAGACGCTTTGTCCAAAATGCTCTAAATGGAAATGGAGACCCAAACAACATGGACAGGGCAGTCAAACTGTACAAGAAATTGAAGAGAGAGATAACATTCCATGGGGCTAAAGAAGTTGCACTCAGTTACTCAACCGGTGCACTTGCCAGTTGTATGGGTCTCATATACAACAGGATGGGGACGGTGACCGCAGAAGTGGCATTGGGCCTAGTGTGTGCCACCTGTGAGCAGATTGCTGATTCACAGCATCGGTCTCACAGGCAGATAGCTACCACCACCAACCCACTAATCAGACATGAAAACAGAATGGTGTTGGCCAGTACTACAGCTAAGGCTATGGAGCAGATGGCTGGATCGAGTGAGCAAGCAGCAGAAGCCATGGAGGTTGCTAGTCAGGCTAGGCAAATGGTGCAAGCGATGAGGACCATTGGAACTCATCCTAGCTCCAGTGCCGGTCTGAGAGATGATCTCCTTGAAAATTTGCAGGCCTACCAAAAACGGATGGGAGTGCAACTGCAGCGATTCAAGTGATCCTCTCGTTATTGCCGCAAGTATCATTGGGATCTTGCACTTGATATTGTGGATTCTTGATCGCCTTTTCTTCAAATGCGTTTATCGTCGCCTTAAATACGGTTTGAAAAGAGGGCCTTCTACGGAAGGAGTACCTGAGTCCATGAGGGAAGAGTACCGGCAGGAACAGCAGAGTGCTGTGGATGTTGACGATGGTCATTTTGTCAACATAGAGCTGGAGTAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSLLTEVETYVLSIVPSGPLKAEIAQRLEDVFAGKNTDLEALMEWLKTRPILSPMTKGILGFVFTLTVPSERGLQRRRFVQNALNGNGDPNNMDRAVKLYKKLKREITFHGAKEVALSYSTGALASCMGLIYNRMGTVTAEVALGLVCATCEQIADSQHRSHRQIATTTNPLIRHENRMVLASTTAKAMEQMAGSSEQAAEAMEVASQARQMVQAMRTIGTHPSSSAGLRDDLLENLQAYQKRMGVQLQRFK*</t>
+    <t xml:space="preserve">AGCAAAAGCAGGTAGATATTGAAAAATGAGTCTTCTAACCGAGGTCGAAACGTACGTTCTCTCTATCGTCCCGTCAGGCCCCCTCAAAGCCGAGATCGCGCAGAGACTTGAGGATGTCTTTGCAGGAAAGAACACCGATCTCGAGGCTCTCATGGAATGGCTAAAGACAAGACCAATCCTGTCACCTCTGACTAAAGGGATTTTAGGATTTGTGTTCACGCTCACCGTGCCCAGTGAGCGAGGACTGCAGCGTAGACGCTTTGTCCAGAATGCCTTAAATGGAAATGGAGATCCAAACAATATGGATAGGGCAGTTAAGCTATACAAGAAGCTGAAAAGAGAAATAACATTCCATGGGGCTAAGGAGGTCGCACTCAGCTACTCAACCGGTGCACTTGCCAGTTGTATGGGTCTCATATACAACAGGATGGGAACGGTGACCACAGAAGTGGCTTTTGGCCTAGTGTGTGCCACTTGTGAGCAGATTGCAGATTCACAGCATCGGTCTCACAGACAGATGGCAACTACCACCAACCCACTAATCAGGCATGAGAACAGAATGGTGCTGGCCAGCACTACAGCTAAGGCTATGGAGCAGATGGCTGGATCGAGTGAGCAGGCAGCGGAAGCCATGGAGGTTGCTAGTCAGGCTAGGCAGATGGTGCAGGCAATGAGGACAATTGGGACTCATCCTAGCTCCAGTGCCGGTCTGAAAGATAATCTTCTTGAAAATTTGCAGGCCTACCAAAAACGAATGGGAGTGCAAATGCAGCGATTCAAGTGATCCTCTTGTTGTTGCCGCAAGTATCATTGGGATACTGCACTTGATATTGTGGATTCTTGATCGTCTTTTCTTCAAATGCATTTATCGTCGCCTTAAATACGGTTTGAAAAGAGGGCCTTCTACGGAAGGGGTACCTGAGTCTATGAGGGAAGAGTATCGGCAGGAACAGCAGAGTGCTGTGGATGTTGACGATGGTCATTTTGTCAACATAGAGCTGGAGTAAAAAACTACCTTGTTTCTACT</t>
   </si>
   <si>
     <t xml:space="preserve">NS</t>
   </si>
   <si>
-    <t xml:space="preserve">ATGGATTCAAACACTGTGTCAAGCTTTCAGGTAGACTGCTTTCTTTGGCATGTCCGCAAACGATTTGCAGACCAAGATATGGGTGATGCCCCATTCCTAGATCGGCTTCGCCGAGACCAAAAGTCCCTAAGAGGGAGAAGCAGCACTCTTGGTATCGACATTGAGGCAGCTACTCGCTCTGGGAAGCAGATAATAGAGCGGATTCTGGGTGAAGAATCAGACGAGGCACTGAAAATGACAATTGCCTCTGTGCCTGCATCCCGCTATATAACTGACATGACCACTGAAGAAATGTCAAGGGACTGGCTTATGCTTATGCCCAAGCAGAAGTTTGCTGGTCCCCTCTGCATCAAAATGGATCAGGCAATCATAGACAAAGACATCACACTGAAGGCAAATTTCAGTGTAATCTTCAACAGATTGGAAACTCTCGTGCTGCTGAGGGCTTTTACCAATGAGGGAGCAATAGTGGGCGAAATTTCACAATTGCCTTCTCTTCCAGGACATACTAGCGAGGATGTCAAAATTGCAATTGGAGTCCTCATCGGGGGACTTGAATGGAATGATAACACAGTTCGAATCTCTGAAAATCTACAGAGATTCGCTTGGGGAAGCAGTAATGAGAATGGGAGACCTCCATTCACTCCAGAGCAGAAACAGAAACTGGCGAGAACAATTGAGTCAGAAGTTTGAAGAAATGAGATGGTTGATTGAAGAAGTGAGACACAAGTTGAAGACAACAGAGAGTAGTTTTGAACAAATAACATTCATGCAAGCATTACAACTATTGCTTGAAGTGGAGCAAGAGATAAGGACTTTCTCGTTTCAGCTTATTTGATGATAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDSNTVSSFQVDCFLWHVRKRFADQDMGDAPFLDRLRRDQKSLRGRSSTLGIDIEAATRSGKQIIERILGEESDEALKMTIASVPASRYITDMTTEEMSRDWLMLMPKQKFAGPLCIKMDQAIIDKDITLKANFSVIFNRLETLVLLRAFTNEGAIVGEISQLPSLPGHTSEDVKIAIGVLIGGLEWNDNTVRISENLQRFAWGSSNENGRPPFTPEQKQKLARTIESEV</t>
+    <t xml:space="preserve">GTGACAAAGACATAATGGATTCCAACACGATAACCTCGTTTCAGGTAGATTGTTATCTATGGCACATAAGAAAGCTACTCAGTATGAGAGACATGTGTGATGCCCCCTTTGATGACAGGCTCCGAAGAGACCAAAAGGCATTAAAGGGAAGAGGCAGCACACTTGGACTCGATTTAAGAGTGGCTACAATGGAGGGGAAAAAGATCGTTGAGGACATCCTGAAGAGTGAGACAAATGAAAACCTCAAAATAGCCATTGCTTCCAGTCCTGCTCCTCGGTATATCACCGATATGAGCATAGAGGAGATGAGCCGAGAATGGTACATGCTGATGCCTAGGCAGAAAATAACTGGAGGCCTTATGGTGAAAATGGACCAAGCCATAATGGATAAAAGAATTATCCTTAAAGCAAATTTCTCAGTTCTATTTGATCAACTAGAGACATTAGTCTCTCTGAGGGCATTCACAGAAAGTGGTGCTATTGTGGCTGAAATATTTCCCATTCCCTCCGTACCAGGACATTTTACAGAGGATGTCAAAAATGCAATTGGAATCCTCATCGGTGGACTTGAATGGAATGATAACTCAATTCGAGCGTCTGAAAATATACAGAGATTCGCTTGGGGAATCCATGATGAGAATGGGGGACCTTCACTCCCTCCAAAACAGAAACGCTACATGGCGAAACGAGTTGAGTCAGAAGTTTGAAGAGATCAGATGGCTCATTGCTGAATGTAGAAATATACTGACAAAGACTGAAAATAGCTTTGAACAGATAACATTTTTGCAAGCATTGCAACTCTTACTTGAAGTTGAGAGTGAGATAAGGACCTTCTCTTTTCAGCTTATTTAATACTAAAAAACAC</t>
   </si>
 </sst>
 </file>
@@ -116,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +114,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,12 +187,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -403,8 +398,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,7 +410,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="37.22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,14 +420,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="447.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -442,14 +437,11 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="530.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -457,16 +449,14 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -474,16 +464,14 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="328.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -491,16 +479,14 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="353.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -508,16 +494,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -525,16 +508,14 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="241.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -542,16 +523,14 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="192.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -559,22 +538,19 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data_backend/resources/domain_data/data_reference_segment.xlsx
+++ b/data_backend/resources/domain_data/data_reference_segment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">reference_seg_id</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">dna_fasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein_fasta</t>
   </si>
   <si>
     <t xml:space="preserve">PB2</t>
@@ -178,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,10 +189,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,7 +392,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,11 +416,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="447.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -435,13 +425,13 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="530.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="479.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -449,14 +439,14 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="364.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -464,14 +454,14 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="328.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -479,14 +469,14 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="353.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="329.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -494,13 +484,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -508,14 +498,14 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="241.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -523,14 +513,14 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="192.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -538,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
